--- a/datos_extraidos.xlsx
+++ b/datos_extraidos.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2895" yWindow="2565" windowWidth="15375" windowHeight="7785" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Extraídos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,11 +45,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -439,35 +439,227 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🇮🇲</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
           <t>🇪🇺</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>text</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ubicacion_no_encontrada</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>y10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>y11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ara ara</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>y12</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>You looked to the North
+[Y 1#2]🌲
+Total: 55 👥
+🇻🇦 : 52 👥, Leader: Skjold
+🇪🇺 : 3 👥, Leader: Starless Night
+🇻🇦Alsencio 🏅12 👣1
+🇻🇦TIBUR0NSIN 🏅14 👣7
+🇻🇦Kinyen 🏅13 👣6
+🇻🇦AngryMuffin 🏅13 👣10
+🇻🇦Gwynbleidd 🏅13 👣8
+🇻🇦Walt 🏅13 👣8
+🇻🇦Fighter 🏅13 👣2
+🇻🇦1nsane 4P 🏅14 👣6
+🇻🇦Tylwyth 🏅13 👣9
+🇻🇦oileel 🏅13 👣9
+🇻🇦The One 🏅13 👣4
+🇻🇦KiberShuter 🏅13 👣8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>y13</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>You looked to the North
+[Y 1#3]🌲
+Total: 55 👥
+🇻🇦 : 52 👥, Leader: Skjold
+🇪🇺 : 3 👥, Leader: Starless Night
+🇻🇦Alsencio 🏅12 👣1
+🇻🇦TIBUR0NSIN 🏅14 👣7
+🇻🇦Kinyen 🏅13 👣6
+🇻🇦AngryMuffin 🏅13 👣10
+🇻🇦Gwynbleidd 🏅13 👣8
+🇻🇦Walt 🏅13 👣8
+🇻🇦Fighter 🏅13 👣2
+🇻🇦1nsane 4P 🏅14 👣6
+🇻🇦Tylwyth 🏅13 👣9
+🇻🇦oileel 🏅13 👣9
+🇻🇦The One 🏅13 👣4
+🇻🇦KiberShuter 🏅13 👣8</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>2024-08-18 2:00:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>y14</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>oooo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>y33</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>105</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>You looked to the West
+[Y 3#3]🔥
+Total: 177 👥
+🇲🇴 : 15 👥, Leader: fykysima
+🇻🇦 : 105 👥, Leader: docta
+🇻🇦Skjold 🏅12 👣11
+🇻🇦Renji 🏅13 👣11
+🇻🇦Erravi 🏅14 👣11
+🇻🇦Bacon Tea 🏅14 👣11
+🇻🇦Angelo_AxA 🏅12 👣11
+🇻🇦gogoshich 🏅13 👣10
+🇻🇦Nisink 🏅13 👣10
+🇻🇦johnnylava 🏅14 👣11
+🇻🇦Satan 🏅14 👣11
+🇻🇦Kaladin 🏅12 👣10
+🇻🇦ATTACK 🏅11 👣10
+🇻🇦ivanaxe 🏅12 👣10</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/datos_extraidos.xlsx
+++ b/datos_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Git\Bots\tg_bot_cw_explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC8952F-EE9E-42AE-9C65-A9EAF4F72A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E958DC76-3055-42EF-9909-19A57AF221A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="192">
   <si>
     <t>Ubicación</t>
   </si>
@@ -37,7 +37,1191 @@
     <t>🇪🇺</t>
   </si>
   <si>
-    <t>text</t>
+    <t>y33</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🔥Y 3#3 and looked around carefully:
+-&gt; Arriving Explorers: 5 people, ETA from 0 to 19 min
+Total: 169 👥
+🇻🇦 : 168 👥, Leader: CuriousCapybara
+🇲🇴 : 1 👥, Leader: Kamachka
+🇻🇦TDSD 🏅15 ❤️8/185
+🇻🇦Carl48L 🏅9 ❤️8/190
+🇻🇦Juan 🏅7 ❤️10/190
+🇻🇦NovaTwist 🏅13 ❤️20/220
+🇻🇦LuisDabu04 🏅13 ❤️24/305
+🇻🇦LaitDemon 🏅9 ❤️33/175
+🇻🇦JmejiasD 🏅13 ❤️50/205
+🇻🇦Vanden 🏅10 ❤️50/205
+🇻🇦El Reyfelino 🏅12 ❤️60/220
+🇻🇦MadPosty 🏅13 ❤️77/230
+🇻🇦D_ShadoW 🏅12 ❤️81/230
+🇻🇦DevilPet 🏅12 ❤️86/320</t>
+  </si>
+  <si>
+    <t>2024-08-19 20:19:07</t>
+  </si>
+  <si>
+    <t>Gilnaure</t>
+  </si>
+  <si>
+    <t>ubicacion_no_encontrada</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🏛0#0 and looked around carefully:
+-&gt; Arriving Explorers: 20 people, ETA from 0 to 23 min
+Total: 277 👥
+🇮🇲 : 51 👥, Leader: Zenitsu Agatsuma
+🇲🇴 : 73 👥, Leader: Demiurg
+🇪🇺 : 73 👥, Leader: Srena
+🇻🇦 : 80 👥, Leader: Domovoy_k
+🇮🇲StannisF 🏅15 👣11
+🇲🇴higgwp 🏅16 👣11
+🇲🇴Daddy 🏅14 👣6
+🇻🇦all_day 🏅14 👣8
+🇪🇺Movchko 🏅15 👣7
+🇻🇦Eigot 🏅14 👣11
+🇲🇴TheSexyFrog 🏅15 👣11
+🇪🇺Panfiliano 🏅13 👣10
+🇲🇴Muharib Flamel 🏅15 👣11
+🇪🇺q_Paul 🏅15 👣7
+🇻🇦EndL3ss 🏅15 👣11
+🇻🇦Tyxlomon 🏅13 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-19 06:16:54</t>
+  </si>
+  <si>
+    <t>NovaTwist</t>
+  </si>
+  <si>
+    <t>g12</t>
+  </si>
+  <si>
+    <t>You looked to the North
+[G 1#2]🌻
+🇲🇴zinniz 🏅15 👣11
+🇲🇴QweAsd 🏅17 👣4
+🇲🇴clif2501 🏅7 👣10
+🇲🇴D31m0S 🏅16 👣11
+🇲🇴lcbcfoo 🏅14 👣6
+🇲🇴Daniel 🏅7 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-20 18:26:33</t>
+  </si>
+  <si>
+    <t>Nomad_x5</t>
+  </si>
+  <si>
+    <t>y22</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[Y 2#2]🌲
+🇻🇦Tanked81 🏅14 👣0
+🇻🇦tonix_rd 🏅11 👣6
+🇻🇦Avandale 🏅12 👣10
+🇻🇦Kawabang0 🏅10 👣10
+🇻🇦Luis 🏅11 👣10
+🇻🇦the_annoying_one 🏅11 👣10
+🇻🇦frankie238 🏅10 👣10
+🇻🇦RAACQ 🏅11 👣10
+🇻🇦Cazorla86 🏅11 👣3</t>
+  </si>
+  <si>
+    <t>2024-08-19 23:46:33</t>
+  </si>
+  <si>
+    <t>jL_io007</t>
+  </si>
+  <si>
+    <t>y21</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[Y 2#1]🏔
+🇻🇦Dibu 🏅12 👣10
+🇻🇦Ax1scsgo 🏅14 👣8
+🇻🇦dextrose 🏅15 👣10
+🇻🇦d_23_tt 🏅13 👣10
+🇻🇦Egil01_mat 🏅14 👣11
+🇻🇦jairodpe 🏅10 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-20 00:28:27</t>
+  </si>
+  <si>
+    <t>barbarorc</t>
+  </si>
+  <si>
+    <t>y11</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[Y 1#1]🌻
+🇻🇦houndsnout 🏅15 👣1
+🇻🇦Cargerdree 🏅14 👣11
+🇻🇦Black Fox 🏅14 👣9
+🇻🇦leonid_favorsky 🏅13 👣10
+🇻🇦Nergon 🏅12 👣3</t>
+  </si>
+  <si>
+    <t>2024-08-20 17:42:52</t>
+  </si>
+  <si>
+    <t>Reyfel_V</t>
+  </si>
+  <si>
+    <t>y23</t>
+  </si>
+  <si>
+    <t>You looked to the North
+[Y 2#3]🌲
+Total: 93 👥
+🇻🇦 : 92 👥, Leader: uzernaamme
+🇪🇺 : 1 👥, Leader: Mario
+🇻🇦Slavi 🏅14 👣10
+🇻🇦Cliffarr 🏅14 👣8
+🇻🇦Familiar 🏅13 👣10
+🇻🇦timmidy 🏅14 👣11
+🇻🇦ArPaVa 🏅13 👣11
+🇻🇦Lucasml 🏅14 👣11
+🇻🇦peepeerkee 🏅15 👣9
+🇻🇦Death Crow 🏅14 👣11
+🇻🇦Fighter 🏅14 👣10
+🇻🇦pant1k3 🏅14 👣10
+🇻🇦Luis_Gar 🏅15 👣10
+🇻🇦war10k 🏅15 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-20 15:34:03</t>
+  </si>
+  <si>
+    <t>rg1</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[RG 1]🕳
+Total: 18 👥
+🇲🇴 : 6 👥, Leader: cko6o4ku WCR
+🇪🇺 : 2 👥, Leader: LadySheep
+🇻🇦 : 3 👥, Leader: Anima
+🇮🇲 : 7 👥, Leader: Mr_0hotNik
+🇲🇴Unshackled 🏅15 👣11
+🇲🇴Ashlyn 🏅16 👣10
+🇮🇲SweetNightmare 🏅15 👣1
+🇮🇲Michelangelo 🏅13 👣2
+🇮🇲Griffith 🏅13 👣10
+🇲🇴Cimafunk1992 🏅13 👣11
+🇮🇲The_Doomh 🏅11 👣11
+🇲🇴ThePansGames2_0 🏅9 👣10
+🇻🇦Ranfujo 🏅10 👣10
+🇮🇲sebagonz106 🏅8 👣9
+🇮🇲Over 🏅11 👣10
+🇲🇴mieayamje 🏅6 👣10</t>
+  </si>
+  <si>
+    <t>br1</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[BR 1]🛖
+Total: 43 👥
+🇪🇺 : 8 👥, Leader: kayttajanimeton
+🇮🇲 : 33 👥, Leader: Lady Darkness
+🇻🇦 : 1 👥, Leader: justdes
+🇲🇴 : 1 👥, Leader: P_tuning
+🇮🇲Killua Zoldick 🏅15 👣10
+🇮🇲finn blinders 🏅15 👣10
+🇮🇲Otton Brightward 🏅16 👣10
+🇮🇲Smaug Duskbane 🏅16 👣11
+🇮🇲The Will of D 🏅15 👣10
+🇮🇲KradNess 🏅16 👣11
+🇪🇺exackk 🏅14 👣11
+🇮🇲ShadowBlaza 🏅15 👣11
+🇮🇲Night Fury 🏅16 👣11
+🇮🇲Black Knight 🏅15 👣6
+🇮🇲Itachi 🏅15 👣8
+🇮🇲M416 🏅15 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-19 14:12:44</t>
+  </si>
+  <si>
+    <t>LUISOFT2012</t>
+  </si>
+  <si>
+    <t>yb1</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🏟YB 1 and looked around carefully:
+Total: 67 👥
+🇪🇺 : 19 👥, Leader: littlebobby
+🇲🇴 : 11 👥, Leader: J1246W
+🇻🇦 : 27 👥, Leader: Renji Shibuya
+🇮🇲 : 10 👥, Leader: Nebbie
+🇻🇦Illuminat 🏅15 👣11
+🇻🇦LLIysrik_bot 🏅14 👣8
+🇻🇦Samael 🏅15 👣8
+🇪🇺BarbasBoss 🏅14 👣11
+🇪🇺Telpord 🏅14 👣9
+🇻🇦XD_Tempest 🏅14 👣4
+🇻🇦peepeerkee 🏅15 👣9
+🇪🇺Lancelotovich 🏅15 👣6
+🇻🇦Bambr 🏅13 👣7
+🇻🇦NovaTwist 🏅14 👣0
+🇪🇺Rustemator 🏅15 👣7
+🇻🇦Warrior 🏅15 👣4</t>
+  </si>
+  <si>
+    <t>2024-08-20 17:42:50</t>
+  </si>
+  <si>
+    <t>gy1</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[GY 1]⛺️
+Total: 77 👥
+🇲🇴 : 27 👥, Leader: DoubleStinger
+🇪🇺 : 12 👥, Leader: Noceda
+🇻🇦 : 29 👥, Leader: LuisDabu04
+🇮🇲 : 9 👥, Leader: xrxsnk
+🇻🇦Furynigh 🏅15 👣10
+🇲🇴Rara1003 🏅14 👣8
+🇲🇴Lazy_Girl_010 🏅14 👣8
+🇻🇦Halfeli 🏅14 👣11
+🇻🇦Hans 🏅15 👣5
+🇻🇦Ehhhhhyu 🏅13 👣7
+🇲🇴romkoll 🏅14 👣11
+🇲🇴Shvingle 🏅16 👣11
+🇲🇴Olgalpg 🏅14 👣8
+🇻🇦gogoshich 🏅14 👣8
+🇲🇴Warrior 🏅14 👣8
+🇻🇦Cyphaer 🏅15 👣8</t>
+  </si>
+  <si>
+    <t>2024-08-20 18:26:35</t>
+  </si>
+  <si>
+    <t>b12</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[B 1#2]🌻
+🇻🇦Anayansi71 🏅12 👣4
+🇻🇦terahekir 🏅13 👣2
+🇻🇦AlverOrna 🏅12 👣1
+🇻🇦Shiny 🏅12 👣7</t>
+  </si>
+  <si>
+    <t>2024-08-20 17:18:47</t>
+  </si>
+  <si>
+    <t>b11</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[B 1#1]🌻
+🇪🇺Ryan Gosling 🏅15 👣4
+🇪🇺Loded Diper 🏅14 👣10
+🇪🇺YaUgu 🏅14 👣6
+🇮🇲sessuper 🏅14 👣1
+🇪🇺Hikari_nam 🏅11 👣10</t>
+  </si>
+  <si>
+    <t>b22</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[B 2#2]🌻
+🇪🇺Annie 🏅12 👣10
+🇪🇺EscrotoColgante 🏅14 👣10
+🇪🇺HaruMaruu 🏅9 👣10
+🇪🇺Kuro_Nekko_09 🏅11 👣9
+🇪🇺ob_N0X_ious 🏅13 👣11
+🇪🇺Chazwer 🏅9 👣5</t>
+  </si>
+  <si>
+    <t>2024-08-20 16:57:58</t>
+  </si>
+  <si>
+    <t>Izzy</t>
+  </si>
+  <si>
+    <t>yb2</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[YB 2]🏔
+🇻🇦AngryMuffin 🏅15 👣8
+🇻🇦youthfooluv 🏅15 👣3
+🇻🇦FuzzyMaro 🏅12 👣8
+🇻🇦kiminonamaewa 🏅14 👣3
+🇻🇦Nala 🏅12 👣6
+🇻🇦tryam 🏅9 👣3</t>
+  </si>
+  <si>
+    <t>2024-08-20 17:42:51</t>
+  </si>
+  <si>
+    <t>b13</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[B 1#3]🗿
+🇪🇺Asasik 🏅15 👣3
+🇪🇺Azul 🏅11 👣10
+🇻🇦igor_gri 🏅7 👣10
+🇪🇺RNS1T 🏅7 👣10
+🇪🇺Sergey 🏅7 👣10
+🇪🇺TKulya 🏅7 👣10
+🇪🇺it4ch00 🏅9 👣10
+🇪🇺TheGorGoi 🏅7 👣10</t>
+  </si>
+  <si>
+    <t>gy2</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[GY 2]🌲
+🇲🇴sir Don Quixote 🏅16 👣10
+🇻🇦Creepy_Totoro 🏅9 👣10
+🇻🇦Zolushka 🏅15 👣6
+🇲🇴T4m4y0 🏅14 👣11
+🇻🇦Warrior 🏅9 👣9</t>
+  </si>
+  <si>
+    <t>2024-08-20 18:32:07</t>
+  </si>
+  <si>
+    <t>y51</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[Y 5#1]🌲
+🇻🇦Tiron_Krus 🏅11 👣10
+🇪🇺alive_undead 🏅13 👣5
+🇻🇦Netkill3r 🏅14 👣2</t>
+  </si>
+  <si>
+    <t>2024-08-20 00:21:38</t>
+  </si>
+  <si>
+    <t>Skjold</t>
+  </si>
+  <si>
+    <t>yb3</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[YB 3]🏔
+🇻🇦su4ara 🏅15 👣8
+🇻🇦SystemMaster 🏅10 👣7
+🇻🇦CIROMAN 🏅10 👣4
+🇻🇦Balancer1 🏅11 👣6</t>
+  </si>
+  <si>
+    <t>2024-08-20 18:18:11</t>
+  </si>
+  <si>
+    <t>y12</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🌲Y 1#2 and looked around carefully:
+-&gt; Arriving Explorers: 3 people, ETA from 0 to 5 min
+⚔️ 🇮🇲Kivenz 🏅12 lvl has claimed rights to this region 43m 57s ago
+Total: 175 👥
+🇮🇲 : 161 👥, Leader: Koro03sense
+🇻🇦 : 14 👥, Leader: kaelska
+🇮🇲The Wall 🏅14 👣2
+🇮🇲Neko '3 🏅13 👣7
+🇮🇲egoisto 🏅13 👣8
+🇮🇲Denvish 🏅14 👣6
+🇮🇲One Autumn Leaf 🏅12 👣10
+🇮🇲angry_gopher 🏅13 👣9
+🇮🇲Edravx 🏅12 👣7
+🇮🇲Flancberg 🏅14 👣2
+🇮🇲FoggyMorning 🏅13 👣10
+🇮🇲Olempy 🏅14 👣1
+🇮🇲Lynnsane 🏅13 👣1
+🇮🇲Otton Brightward 🏅13 👣7
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-19 23:18:02</t>
+  </si>
+  <si>
+    <t>Noob4life</t>
+  </si>
+  <si>
+    <t>r51</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🏔R 5#1 and looked around carefully:
+-&gt; Arriving Explorers: 104 people, ETA from 0 to 14 min
+⚔️ 🇪🇺Azota Perras 🏅12 lvl has claimed rights to this region 05m 02s ago
+Total: 42 👥
+🇮🇲 : 24 👥, Leader: Fresita97
+🇪🇺 : 18 👥, Leader: Nomadir
+🇮🇲Meheres 🏅13 👣2
+🇮🇲Denvish 🏅15 👣8
+🇮🇲Olempy 🏅16 👣1
+🇮🇲L0th4n 🏅14 👣11
+🇮🇲ChaconPD 🏅14 👣6
+🇮🇲Aegiis 🏅13 👣11
+🇮🇲SeaWolk 🏅13 👣3
+🇪🇺Schurke 🏅14 👣6
+🇪🇺ragg3d_insomnia 🏅15 👣4
+🇪🇺Gert88 🏅14 👣8
+🇪🇺Remy Pornstar 🏅12 👣9
+🇪🇺Valerian 🏅15 👣5
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-19 00:48:03</t>
+  </si>
+  <si>
+    <t>y31</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[Y 3#1]🌲
+🇻🇦su4ara 🏅15 👣3
+🇲🇴everyvvhere 🏅15 👣4
+🇻🇦Nergon 🏅11 👣2
+🇲🇴P_tuning 🏅9 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-20 01:39:38</t>
+  </si>
+  <si>
+    <t>y34</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[Y 3#4]🏔
+Total: 114 👥
+🇻🇦 : 114 👥, Leader: KyraBlake
+🇻🇦TiadaIma 🏅14 👣10
+🇻🇦Im_Gr0ot 🏅13 👣10
+🇻🇦sTwisTs 🏅15 👣6
+🇻🇦Playssin 🏅13 👣10
+🇻🇦Sinon_Woolf 🏅14 👣10
+🇻🇦deripaskovich 🏅14 👣10
+🇻🇦kustiik 🏅15 👣11
+🇻🇦richylyq 🏅14 👣10
+🇻🇦Murloc 🏅14 👣10
+🇻🇦montblanc12 🏅12 👣10
+🇻🇦laminar 🏅13 👣7
+🇻🇦IamAfroman 🏅15 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-20 15:34:04</t>
+  </si>
+  <si>
+    <t>y32</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[Y 3#2]🌲
+Total: 5517 👥
+🇻🇦 : 5517 👥, Leader: firefighter
+🇻🇦ivanboytsov 🏅15 👣9
+🇻🇦Kluij 🏅14 👣5
+🇻🇦snegoweeke 🏅14 👣10
+🇻🇦Ni7ey 🏅13 👣9
+🇻🇦Sir Panda 🏅15 👣11
+🇻🇦Atarso 🏅15 👣2
+🇻🇦Damphir03 🏅13 👣10
+🇻🇦Crosby15 🏅15 👣2
+🇻🇦Axel_brother 🏅11 👣9
+🇻🇦im_trying_to 🏅12 👣11
+🇻🇦foile 🏅13 👣10
+🇻🇦BattleHelicopter 🏅15 👣7</t>
+  </si>
+  <si>
+    <t>2024-08-19 20:58:49</t>
+  </si>
+  <si>
+    <t>y24</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🗿Y 2#4 and looked around carefully:
+-&gt; Arriving Explorers: 6 people, ETA from 1 to 17 min
+Total: 61 👥
+🇻🇦 : 60 👥, Leader: Skjold
+🇲🇴 : 1 👥, Leader: Su_R_uP
+🇻🇦TIBUR0NSIN 🏅15 👣10
+🇻🇦Angelo_AxA 🏅14 👣4
+🇻🇦Shiny 🏅12 👣11
+🇻🇦Ehhhhhyu 🏅13 👣11
+🇻🇦Elusive Joe 🏅15 👣8
+🇻🇦Kaladin 🏅14 👣11
+🇻🇦DevilPet 🏅12 👣9
+🇻🇦Frankenstein 🏅14 👣5
+🇻🇦Elver Gota 🏅14 👣4
+🇻🇦Axel_brother 🏅12 👣4
+🇻🇦Damphir03 🏅13 👣9
+🇻🇦Ross96D 🏅14 👣9
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>r691</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🏔R 69#1 and looked around carefully:
+-&gt; Arriving Explorers: 104 people, ETA from 0 to 14 min
+⚔️ 🇪🇺Azota Perras 🏅12 lvl has claimed rights to this region 05m 02s ago
+Total: 42 👥
+🇮🇲 : 24 👥, Leader: Fresita97
+🇪🇺 : 18 👥, Leader: Nomadir
+🇮🇲Meheres 🏅13 👣2
+🇮🇲Denvish 🏅15 👣8
+🇮🇲Olempy 🏅16 👣1
+🇮🇲L0th4n 🏅14 👣11
+🇮🇲ChaconPD 🏅14 👣6
+🇮🇲Aegiis 🏅13 👣11
+🇮🇲SeaWolk 🏅13 👣3
+🇪🇺Schurke 🏅14 👣6
+🇪🇺ragg3d_insomnia 🏅15 👣4
+🇪🇺Gert88 🏅14 👣8
+🇪🇺Remy Pornstar 🏅12 👣9
+🇪🇺Valerian 🏅15 👣5
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>b41</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🌲B 4#1 and looked around carefully:
+-&gt; Arriving Explorers: 400 people, ETA from 0 to 13 min
+⚔️ 🇮🇲ZahiriNatZuke 🏅13 lvl has claimed rights to this region 51m 40s ago
+Total: 2220 👥
+🇮🇲 : 1577 👥, Leader: Lady Darkness
+🇪🇺 : 638 👥, Leader: AlexisOMG</t>
+  </si>
+  <si>
+    <t>2024-08-19 00:56:15</t>
+  </si>
+  <si>
+    <t>y43</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🌻Y 4#3 and looked around carefully:
+-&gt; Arriving Explorers: 1 people, ETA 1 min
+Total: 237 👥
+🇻🇦 : 237 👥, Leader: Domovoy_k
+🇻🇦kvkoolf 🏅14 👣10
+🇻🇦invyspirit 🏅14 👣11
+🇻🇦LuisDabu04 🏅13 👣11
+🇻🇦Halfeli 🏅13 👣11
+🇻🇦AngryMuffin 🏅14 👣11
+🇻🇦Kinyen 🏅14 👣9
+🇻🇦scwibbling 🏅14 👣10
+🇻🇦ACC30RUS 🏅12 👣10
+🇻🇦KyraBlake 🏅13 👣10
+🇻🇦gogoshich 🏅14 👣8
+🇻🇦Kodok Sawah 🏅13 👣11
+🇻🇦Nisink 🏅14 👣10
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-19 14:49:18</t>
+  </si>
+  <si>
+    <t>y13</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[Y 1#3]🏔
+🇻🇦johnnylava 🏅15 👣3
+🇻🇦TrafaD 🏅13 👣11
+🇻🇦dextrose 🏅15 👣11
+🇻🇦Inikrab 🏅14 👣10
+🇪🇺tr0j4n87 🏅7 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-20 16:25:21</t>
+  </si>
+  <si>
+    <t>b32</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[B 3#2]🌲
+Total: 471 👥
+🇪🇺 : 469 👥, Leader: Fxrthy
+🇮🇲 : 2 👥, Leader: FoggyMorning
+🇪🇺Deng 🏅15 👣7
+🇪🇺Maple 🏅15 👣10
+🇪🇺kumo_00 🏅13 👣10
+🇪🇺Kal_Stormblessed 🏅15 👣10
+🇪🇺Piseis 🏅15 👣11
+🇪🇺Warrior 🏅14 👣10
+🇪🇺Firefox07 🏅14 👣11
+🇪🇺kuroe-ichi 🏅13 👣11
+🇪🇺Fighter 🏅14 👣9
+🇪🇺Krieger 🏅14 👣11
+🇪🇺Melon 🏅14 👣9
+🇪🇺kolyamba 🏅15 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-19 02:16:55</t>
+  </si>
+  <si>
+    <t>b23</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[B 2#3]🌻
+Total: 329 👥
+🇪🇺 : 329 👥, Leader: 3mpty
+🇪🇺Chrisfetell 🏅15 👣3
+🇪🇺The Ayuwoki 🏅15 👣11
+🇪🇺Spektor 23 🏅15 👣7
+🇪🇺Smile 🏅13 👣11
+🇪🇺MontanaQXQ 🏅14 👣7
+🇪🇺archaotic 🏅12 👣11
+🇪🇺Sunset Shimmer 🏅15 👣11
+🇪🇺Hibiki 🏅15 👣10
+🇪🇺KovalskyII 🏅15 👣11
+🇪🇺Danyela99 🏅13 👣10
+🇪🇺dusyas pussy 🏅14 👣11
+🇪🇺Lemon_Melon 🏅14 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-19 02:16:57</t>
+  </si>
+  <si>
+    <t>b21</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[B 2#1]🏔
+🇪🇺Aiyubus 🏅15 👣11
+🇮🇲lifeleon 🏅14 👣10
+🇪🇺odesskina 🏅15 👣6
+🇮🇲KoRenq 🏅13 👣10
+🇻🇦NovaTwist 🏅14 👣2
+🇪🇺Mushu05 🏅8 👣10</t>
+  </si>
+  <si>
+    <t>gy5</t>
+  </si>
+  <si>
+    <t>You looked to the North
+[GY 5]🌳
+💨[empty]</t>
+  </si>
+  <si>
+    <t>y42</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[Y 4#2]🏰
+🇻🇦Bormotoon 🏅12 👣10
+🇻🇦mikefinch 🏅14 👣0
+🇻🇦qweasdzxc123S 🏅7 👣10
+🇻🇦DarkHeLLsing 🏅7 👣10
+🇻🇦Fighter 🏅10 👣10
+🇻🇦miralad_octus 🏅12 👣11
+🇻🇦Misterioni 🏅10 👣10
+🇻🇦Sizynokyn 🏅7 👣10
+🇻🇦tryam 🏅8 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-20 00:22:03</t>
+  </si>
+  <si>
+    <t>g11</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[G 1#1]🌲
+Total: 43 👥
+🇲🇴 : 42 👥, Leader: HoWard0
+🇻🇦 : 1 👥, Leader: shade_ncs
+🇲🇴Hasserodian 🏅16 👣11
+🇲🇴Gleps 🏅17 👣13
+🇲🇴wrathunleashed 🏅16 👣11
+🇲🇴Solas WCR 🏅15 👣10
+🇲🇴Boksan AG 🏅15 👣11
+🇲🇴hi4C0CK 🏅15 👣10
+🇲🇴Keril AG 🏅16 👣11
+🇲🇴Kaishaku 🏅15 👣11
+🇲🇴ANTI-AIR DRONE 🏅13 👣10
+🇲🇴o_artem_o 🏅17 👣11
+🇲🇴DungeonRabbit 🏅16 👣11
+🇲🇴archer_girl 🏅15 👣9</t>
+  </si>
+  <si>
+    <t>2024-08-20 18:32:05</t>
+  </si>
+  <si>
+    <t>gy3</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[GY 3]🌻
+🇲🇴LaviYarvi 🏅13 👣7
+🇻🇦Gussarov 🏅13 👣10
+🇻🇦Yamile 🏅11 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-20 18:41:27</t>
+  </si>
+  <si>
+    <t>y41</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🏔Y 4#1 and looked around carefully:
+🇲🇴WTDOHE 🏅13 👣6
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-20 00:21:03</t>
+  </si>
+  <si>
+    <t>r11</t>
+  </si>
+  <si>
+    <t>You looked to the North
+[R 1#1]🌲
+🇮🇲Milkcinnamon 🏅11 👣10
+🇮🇲hzt553 🏅13 👣10
+🇮🇲Warrior 🏅9 👣10
+🇮🇲Mark02345 🏅9 👣10
+🇮🇲SuperJumpy 🏅10 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-19 14:50:55</t>
+  </si>
+  <si>
+    <t>r12</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🌲R 1#2 and looked around carefully:
+🇮🇲oxcar103 🏅16 👣3
+🇮🇲CastielBoys 🏅13 👣11
+🇲🇴Chejche 🏅13 👣1
+🇮🇲The White Wolf 🏅14 👣10
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-19 14:17:33</t>
+  </si>
+  <si>
+    <t>r21</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[R 2#1]🏔
+🇮🇲James_Honda 🏅15 👣1
+🇮🇲Scannor 🏅12 👣10
+🇮🇲boysunmaqan 🏅13 👣9
+🇮🇲SirMrrgglton 🏅9 👣10
+🇮🇲hyde_me 🏅12 👣8
+🇮🇲anja_owl 🏅11 👣10
+🇮🇲atropos 🏅14 👣9
+🇮🇲Elpaladin 🏅14 👣5
+🇮🇲sssspoke 🏅11 👣6
+🇮🇲Epixinnar 🏅8 👣10</t>
+  </si>
+  <si>
+    <t>r13</t>
+  </si>
+  <si>
+    <t>You looked to the North
+[R 1#3]🌻
+💨[empty]</t>
+  </si>
+  <si>
+    <t>r22</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[R 2#2]🏔
+🇮🇲NICR22 🏅9 👣10
+🇮🇲Flancberg 🏅16 👣10
+🇮🇲Dmityaj 🏅13 👣9
+🇮🇲Kurumi 🏅15 👣6
+🇮🇲holy_loony 🏅14 👣11
+🇮🇲Reine_rina 🏅10 👣10
+🇮🇲SvyatStone 🏅14 👣10
+🇮🇲AnastaSee_U 🏅7 👣10
+🇮🇲loverosiee 🏅7 👣10
+🇮🇲moyyashik 🏅7 👣10</t>
+  </si>
+  <si>
+    <t>rg2</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[RG 2]🌲
+🇮🇲Legolitas 🏅12 👣8
+🇮🇲AngryPlop 🏅13 👣10
+🇮🇲Natali 🏅15 👣9
+🇮🇲MegaGrek 🏅14 👣10</t>
+  </si>
+  <si>
+    <t>y45</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the ⛲️Y 4#5 and looked around carefully:
+-&gt; Arriving Explorers: 2 people, ETA from 1 to 5 min
+💨[empty]</t>
+  </si>
+  <si>
+    <t>DemonLights</t>
+  </si>
+  <si>
+    <t>y44</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[Y 4#4]🌻
+🇻🇦Warrior 🏅14 👣4
+🇻🇦OgorodSosat 🏅15 👣11
+🇻🇦VAGODROCHER 🏅14 👣10
+🇻🇦Slaver_Crips 🏅13 👣11
+🇻🇦naadelocos 🏅9 👣3</t>
+  </si>
+  <si>
+    <t>2024-08-19 14:49:19</t>
+  </si>
+  <si>
+    <t>y46</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[Y 4#6]⬜️
+💨[empty]</t>
+  </si>
+  <si>
+    <t>y35</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[Y 3#5]🌲
+🇻🇦NUUUPARU 🏅7 👣10
+🇻🇦I_Shall_Awoo 🏅10 👣10
+🇻🇦ArthurAskelad 🏅8 👣10
+🇻🇦Jose Luis 🏅8 👣10</t>
+  </si>
+  <si>
+    <t>y55</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[Y 5#5]🌻
+🇻🇦Pesterwichtely 🏅12 👣10</t>
+  </si>
+  <si>
+    <t>y53</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[Y 5#3]🏔
+🇻🇦su4ara 🏅14 👣7
+🇻🇦Catioro 🏅12 👣10
+🇻🇦yow_jpeg 🏅9 👣10
+🇻🇦tonix_rd 🏅11 👣10
+🇻🇦Tacos 🏅12 👣10
+🇻🇦MrdrSmith 🏅9 👣10
+🇻🇦patss00 🏅11 👣1
+🇻🇦Saiwudi 🏅8 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-19 15:11:33</t>
+  </si>
+  <si>
+    <t>Mayli206</t>
+  </si>
+  <si>
+    <t>br2</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[BR 2]🌲
+Total: 20 👥
+🇮🇲 : 3 👥, Leader: wedford
+🇪🇺 : 17 👥, Leader: JOHN CENA
+🇪🇺eggytart 🏅14 👣3
+🇮🇲Electro 🏅15 👣10
+🇪🇺GsABlackbird 🏅14 👣3
+🇪🇺mh_hafiz 🏅13 👣4
+🇪🇺The_End_MGS 🏅11 👣8
+🇪🇺Hypomanie 🏅13 👣5
+🇪🇺Chica_Fresaa 🏅13 👣11
+🇪🇺Quorthon 🏅14 👣5
+🇪🇺absinthe_ssaer 🏅9 👣4
+🇪🇺azbayn 🏅13 👣6
+🇪🇺White Rabbit 🏅14 👣6
+🇪🇺betoooz 🏅11 👣6</t>
+  </si>
+  <si>
+    <t>y14</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🌻Y 1#4 and looked around carefully:
+🇻🇦Ziraf 🏅14 👣6
+🇻🇦el_killer 🏅12 👣10
+🇻🇦Sigrdriva 🏅12 👣5
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-20 16:24:22</t>
+  </si>
+  <si>
+    <t>g21</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[G 2#1]🌻
+Total: 15 👥
+🇲🇴 : 7 👥, Leader: Thronos Elder
+🇻🇦 : 8 👥, Leader: KyraBlake
+🇻🇦Elver Gota 🏅14 👣5
+🇻🇦miss_badger 🏅14 👣6
+🇻🇦ivanaxe 🏅13 👣5
+🇻🇦VAGODROCHER 🏅15 👣9
+🇲🇴Seraphim Karma 🏅14 👣10
+🇲🇴Njord86 🏅14 👣10
+🇲🇴Seraphin Adam 🏅14 👣10
+🇲🇴Masr64 🏅16 👣10
+🇲🇴Asbjord86 🏅14 👣10
+🇻🇦shadow_sovereing 🏅13 👣10
+🇻🇦Vladimir125VDK 🏅11 👣10
+🇲🇴Allen_XD 🏅10 👣5</t>
+  </si>
+  <si>
+    <t>yb4</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[YB 4]🌻
+🇪🇺alextrololo 🏅7 👣9
+🇻🇦youthfooluv 🏅15 👣2
+🇻🇦Warrior 🏅14 👣6
+🇻🇦NielRain 🏅8 👣10
+🇻🇦TheTo4e 🏅9 👣1</t>
+  </si>
+  <si>
+    <t>g31</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[G 3#1]🌻
+🇲🇴eddx0 🏅15 👣10
+🇲🇴Om_Y06 🏅9 👣10
+🇲🇴Waddles 🏅15 👣8
+🇲🇴Sempaidkuro 🏅7 👣10
+🇲🇴Joeli29 🏅8 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-20 18:32:06</t>
+  </si>
+  <si>
+    <t>gy4</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[GY 4]🏔
+🇲🇴kotichka miu WCR 🏅16 👣5
+🇲🇴spherebread WCR 🏅17 👣6
+🇻🇦EndL3ss 🏅15 👣8
+🇲🇴gdeshekeli 🏅15 👣9
+🇲🇴Montyni 🏅11 👣0
+🇲🇴Nanahoshi 🏅14 👣9
+🇻🇦try2scam 🏅12 👣6
+🇲🇴Kijang Emas 🏅10 👣5</t>
+  </si>
+  <si>
+    <t>2024-08-20 07:43:44</t>
+  </si>
+  <si>
+    <t>g51</t>
+  </si>
+  <si>
+    <t>You looked to the North
+[G 5#1]🌲
+Total: 30 👥
+🇲🇴 : 30 👥, Leader: everyvvhere
+🇲🇴Tjodmar 🏅12 👣11
+🇲🇴KvaKapss 🏅13 👣11
+🇲🇴Medyak 🏅11 👣11
+🇲🇴sug210 🏅16 👣11
+🇲🇴LawNMoveR 🏅13 👣8
+🇲🇴Lynch 🏅13 👣11
+🇲🇴vonlotra 🏅12 👣2
+🇲🇴Meowghoul 🏅15 👣10
+🇲🇴Diego3191 🏅13 👣11
+🇲🇴petaton 🏅15 👣10
+🇲🇴DeadlyMADphantom 🏅14 👣4
+🇲🇴Aivelyn 🏅16 👣11</t>
+  </si>
+  <si>
+    <t>b14</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[B 1#4]🌻
+🇪🇺Shadou6 🏅12 👣10
+🇪🇺SirLanse 🏅7 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-20 16:24:24</t>
+  </si>
+  <si>
+    <t>yb5</t>
+  </si>
+  <si>
+    <t>You looked to the West
+[YB 5]🌳
+🇻🇦youthfooluv 🏅15 👣3</t>
+  </si>
+  <si>
+    <t>2024-08-20 16:24:20</t>
+  </si>
+  <si>
+    <t>br4</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[BR 4]🌻
+Total: 38 👥
+🇪🇺 : 19 👥, Leader: whailliam
+🇮🇲 : 19 👥, Leader: Koro03sense
+🇮🇲L0th4n 🏅14 👣10
+🇮🇲M416 🏅14 👣3
+🇮🇲BalthierStrahl 🏅14 👣2
+🇮🇲AlyBanniel 🏅14 👣4
+🇮🇲Yusismejlo 🏅14 👣1
+🇮🇲Gelpisteem 🏅14 👣2
+🇮🇲Anakin Skywalker 🏅14 👣2
+🇪🇺Remy Pornstar 🏅12 👣11
+🇪🇺userfun 🏅13 👣6
+🇮🇲Aeron2020 🏅12 👣8
+🇮🇲Bismillyashka 🏅14 👣4
+🇮🇲Ingrid Dawnguard 🏅11 👣8</t>
+  </si>
+  <si>
+    <t>Namelessking25</t>
+  </si>
+  <si>
+    <t>g13</t>
+  </si>
+  <si>
+    <t>You looked to the North
+[G 1#3]🌲
+🇲🇴Keril AG 🏅16 👣3
+🇲🇴jose_vanpringled 🏅10 👣1
+🇲🇴res_Tobermory 🏅12 👣10
+🇲🇴esveb_nsk 🏅7 👣10</t>
+  </si>
+  <si>
+    <t>g22</t>
+  </si>
+  <si>
+    <t>You looked to the North
+[G 2#2]🌻
+Total: 50 👥
+🇲🇴 : 50 👥, Leader: Al3x_02
+🇲🇴YOB Vit 🏅17 👣11
+🇲🇴Dimaasssikk 🏅15 👣11
+🇲🇴Heir of Breath 🏅14 👣11
+🇲🇴delightmanga 🏅15 👣11
+🇲🇴mamontemok 🏅17 👣11
+🇲🇴Aypopiske 🏅16 👣12
+🇲🇴Tjodmar 🏅12 👣11
+🇲🇴eugencalavera 🏅15 👣10
+🇲🇴Zitronga 🏅15 👣11
+🇲🇴KvaKapss 🏅14 👣11
+🇲🇴Lynch 🏅14 👣11
+🇲🇴Pirra 🏅15 👣11</t>
+  </si>
+  <si>
+    <t>g41</t>
+  </si>
+  <si>
+    <t>You looked to the East
+[G 4#1]🌲
+🇲🇴SYMRAK 🏅15 👣6
+🇲🇴UNGAegon 🏅15 👣10
+🇲🇴Viart BL9T 🏅15 👣10
+🇲🇴Garf AG 🏅14 👣11
+🇲🇴Ibrahimrom 🏅13 👣10
+🇲🇴Abrah5116 🏅12 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-20 18:41:26</t>
+  </si>
+  <si>
+    <t>g32</t>
+  </si>
+  <si>
+    <t>You looked to the North
+[G 3#2]🌻
+Total: 342 👥
+🇲🇴 : 342 👥, Leader: ququcapol
+🇲🇴RisenThron 🏅16 👣11
+🇲🇴PussySlayer2008 🏅15 👣11
+🇲🇴CherryAnimal AG 🏅15 👣11
+🇲🇴Xomiachock BL9T 🏅16 👣11
+🇲🇴FREE MARMELADOV 🏅16 👣11
+🇲🇴jon36 🏅16 👣10
+🇲🇴FreesTyle 🏅15 👣8
+🇲🇴13th 🏅16 👣11
+🇲🇴KlerikSV 🏅17 👣11
+🇲🇴M4A3E2 Sherman 🏅15 👣11
+🇲🇴YOB Russ_mAn 🏅17 👣11
+🇲🇴everyvvhere 🏅15 👣11</t>
+  </si>
+  <si>
+    <t>y15</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🏔Y 1#5 and looked around carefully:
+-&gt; Arriving Explorers: 45 people, ETA from 0 to 9 min
+⚔️ 🇻🇦Nomad 🏅14 lvl has claimed rights to this region 13m 36s ago
+Total: 103 👥
+🇻🇦 : 103 👥, Leader: Skjold
+🇻🇦CuriousCapybara 🏅15 👣6
+🇻🇦ivanboytsov 🏅15 👣2
+🇻🇦Renji Shibuya 🏅14 👣6
+🇻🇦Stimrl 🏅15 👣2
+🇻🇦Erravi 🏅15 👣2
+🇻🇦TIBUR0NSIN 🏅15 👣8
+🇻🇦Angelo_AxA 🏅14 👣2
+🇻🇦Kinyen 🏅14 👣5
+🇻🇦Shiny 🏅12 👣9
+🇻🇦AngryCapybara 🏅15 👣8
+🇻🇦Loshadkin 🏅15 👣2
+🇻🇦dikolohuzhskaya 🏅15 👣4
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-20 15:57:17</t>
+  </si>
+  <si>
+    <t>y25</t>
+  </si>
+  <si>
+    <t>You looked to the South
+[Y 2#5]🌲
+🇻🇦xokdu 🏅10 👣10
+🇻🇦LightningRod 🏅11 👣10</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>user_posted</t>
   </si>
 </sst>
 </file>
@@ -73,10 +1257,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,15 +1561,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,154 +1589,1646 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>168</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>161</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>5517</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1577</v>
+      </c>
+      <c r="E28">
+        <v>638</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>237</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>469</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>329</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" t="s">
+        <v>171</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>19</v>
+      </c>
+      <c r="E60">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>176</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G63" t="s">
+        <v>181</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64">
+        <v>342</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" t="s">
+        <v>181</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>103</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datos_extraidos.xlsx
+++ b/datos_extraidos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Git\Bots\tg_bot_cw_explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E958DC76-3055-42EF-9909-19A57AF221A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8ECE4-3423-4966-8746-D57D8A03CE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="196">
   <si>
     <t>Ubicación</t>
   </si>
@@ -37,32 +37,16 @@
     <t>🇪🇺</t>
   </si>
   <si>
-    <t>y33</t>
-  </si>
-  <si>
-    <t>You climbed to the highest point in the 🔥Y 3#3 and looked around carefully:
--&gt; Arriving Explorers: 5 people, ETA from 0 to 19 min
-Total: 169 👥
-🇻🇦 : 168 👥, Leader: CuriousCapybara
-🇲🇴 : 1 👥, Leader: Kamachka
-🇻🇦TDSD 🏅15 ❤️8/185
-🇻🇦Carl48L 🏅9 ❤️8/190
-🇻🇦Juan 🏅7 ❤️10/190
-🇻🇦NovaTwist 🏅13 ❤️20/220
-🇻🇦LuisDabu04 🏅13 ❤️24/305
-🇻🇦LaitDemon 🏅9 ❤️33/175
-🇻🇦JmejiasD 🏅13 ❤️50/205
-🇻🇦Vanden 🏅10 ❤️50/205
-🇻🇦El Reyfelino 🏅12 ❤️60/220
-🇻🇦MadPosty 🏅13 ❤️77/230
-🇻🇦D_ShadoW 🏅12 ❤️81/230
-🇻🇦DevilPet 🏅12 ❤️86/320</t>
-  </si>
-  <si>
-    <t>2024-08-19 20:19:07</t>
-  </si>
-  <si>
-    <t>Gilnaure</t>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>user_posted</t>
+  </si>
+  <si>
+    <t>Martha Manso</t>
   </si>
   <si>
     <t>ubicacion_no_encontrada</t>
@@ -100,40 +84,27 @@
   <si>
     <t>You looked to the North
 [G 1#2]🌻
-🇲🇴zinniz 🏅15 👣11
-🇲🇴QweAsd 🏅17 👣4
-🇲🇴clif2501 🏅7 👣10
-🇲🇴D31m0S 🏅16 👣11
-🇲🇴lcbcfoo 🏅14 👣6
-🇲🇴Daniel 🏅7 👣10</t>
-  </si>
-  <si>
-    <t>2024-08-20 18:26:33</t>
-  </si>
-  <si>
-    <t>Nomad_x5</t>
+🇲🇴icebearrules 🏅12 👣10
+🇲🇴CHLEX 🏅15 👣7</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:26:46</t>
+  </si>
+  <si>
+    <t>MARIENEKO3</t>
   </si>
   <si>
     <t>y22</t>
   </si>
   <si>
-    <t>You looked to the East
+    <t>You looked to the North
 [Y 2#2]🌲
-🇻🇦Tanked81 🏅14 👣0
-🇻🇦tonix_rd 🏅11 👣6
-🇻🇦Avandale 🏅12 👣10
-🇻🇦Kawabang0 🏅10 👣10
-🇻🇦Luis 🏅11 👣10
-🇻🇦the_annoying_one 🏅11 👣10
-🇻🇦frankie238 🏅10 👣10
-🇻🇦RAACQ 🏅11 👣10
-🇻🇦Cazorla86 🏅11 👣3</t>
-  </si>
-  <si>
-    <t>2024-08-19 23:46:33</t>
-  </si>
-  <si>
-    <t>jL_io007</t>
+🇻🇦dextrose 🏅15 👣3
+🇻🇦Heartless_Kairi 🏅12 👣10
+🇻🇦TeaOtaku 🏅13 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:41:27</t>
   </si>
   <si>
     <t>y21</t>
@@ -141,168 +112,176 @@
   <si>
     <t>You looked to the South
 [Y 2#1]🏔
-🇻🇦Dibu 🏅12 👣10
-🇻🇦Ax1scsgo 🏅14 👣8
-🇻🇦dextrose 🏅15 👣10
-🇻🇦d_23_tt 🏅13 👣10
+🇻🇦DiamonD 🏅15 👣9
+🇻🇦jowkinkot 🏅15 👣10
+🇻🇦lerunok 🏅14 👣7
 🇻🇦Egil01_mat 🏅14 👣11
-🇻🇦jairodpe 🏅10 👣10</t>
-  </si>
-  <si>
-    <t>2024-08-20 00:28:27</t>
-  </si>
-  <si>
-    <t>barbarorc</t>
+🇻🇦Tacos 🏅13 👣10
+🇻🇦dostavallo 🏅13 👣4</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:51:00</t>
+  </si>
+  <si>
+    <t>Mayli206</t>
   </si>
   <si>
     <t>y11</t>
   </si>
   <si>
-    <t>You looked to the East
+    <t>You looked to the West
 [Y 1#1]🌻
-🇻🇦houndsnout 🏅15 👣1
-🇻🇦Cargerdree 🏅14 👣11
-🇻🇦Black Fox 🏅14 👣9
-🇻🇦leonid_favorsky 🏅13 👣10
-🇻🇦Nergon 🏅12 👣3</t>
-  </si>
-  <si>
-    <t>2024-08-20 17:42:52</t>
-  </si>
-  <si>
-    <t>Reyfel_V</t>
+Total: 25 👥
+🇪🇺 : 18 👥, Leader: MariaLhm
+🇻🇦 : 7 👥, Leader: Tyxlomon
+🇪🇺MontanaQXQ 🏅15 👣5
+🇪🇺AliciaHerreraL 🏅10 👣8
+🇪🇺magic_servet 🏅11 👣5
+🇪🇺RSCherub 🏅15 👣9
+🇪🇺HippyFizz 🏅15 👣5
+🇻🇦Vinzelvul 🏅13 👣7
+🇪🇺FranVML 🏅16 👣9
+🇻🇦gogoshich 🏅15 👣0
+🇪🇺Revanhol 🏅15 👣5
+🇪🇺ReptonBoxing 🏅12 👣10
+🇪🇺LeftSideSeraph 🏅15 👣9
+🇪🇺IzzyMarie 🏅14 👣9</t>
+  </si>
+  <si>
+    <t>2024-08-21 18:48:56</t>
+  </si>
+  <si>
+    <t>Alsencio</t>
   </si>
   <si>
     <t>y23</t>
   </si>
   <si>
-    <t>You looked to the North
-[Y 2#3]🌲
-Total: 93 👥
-🇻🇦 : 92 👥, Leader: uzernaamme
-🇪🇺 : 1 👥, Leader: Mario
-🇻🇦Slavi 🏅14 👣10
-🇻🇦Cliffarr 🏅14 👣8
+    <t>You climbed to the highest point in the 🌲Y 2#3 and looked around carefully:
+-&gt; Arriving Explorers: 1 people, ETA 1 min
+Total: 105 👥
+🇻🇦 : 105 👥, Leader: Renji Shibuya
+🇻🇦Halfeli 🏅14 👣11
+🇻🇦DevilPet 🏅12 👣11
+🇻🇦uzernaamme 🏅13 👣10
+🇻🇦Julien 🏅15 👣9
 🇻🇦Familiar 🏅13 👣10
-🇻🇦timmidy 🏅14 👣11
-🇻🇦ArPaVa 🏅13 👣11
-🇻🇦Lucasml 🏅14 👣11
-🇻🇦peepeerkee 🏅15 👣9
-🇻🇦Death Crow 🏅14 👣11
-🇻🇦Fighter 🏅14 👣10
+🇻🇦birdPuffin 🏅15 👣10
+🇻🇦sTwisTs 🏅15 👣9
+🇻🇦Michaela 🏅16 👣5
+🇻🇦BMAX131 🏅15 👣11
 🇻🇦pant1k3 🏅14 👣10
 🇻🇦Luis_Gar 🏅15 👣10
-🇻🇦war10k 🏅15 👣11</t>
-  </si>
-  <si>
-    <t>2024-08-20 15:34:03</t>
+🇻🇦kustiik 🏅15 👣11
+Combat options: /combat</t>
   </si>
   <si>
     <t>rg1</t>
   </si>
   <si>
+    <t>You looked to the North
+[RG 1]🕳
+Total: 16 👥
+🇮🇲 : 8 👥, Leader: BenDrownedRinku
+🇪🇺 : 1 👥, Leader: LadySheep
+🇲🇴 : 5 👥, Leader: Fighter
+🇻🇦 : 2 👥, Leader: Ranfujo
+🇮🇲Elpaladin 🏅15 👣5
+🇲🇴Cimafunk1992 🏅13 👣11
+🇮🇲Papi Orlan 🏅13 👣11
+🇲🇴T742398 🏅8 👣5
+🇲🇴Agent 🏅12 👣8
+🇮🇲Luthian 🏅15 👣5
+🇮🇲bindersas 🏅13 👣6
+🇮🇲Over 🏅11 👣10
+🇮🇲keygen3 🏅9 👣10
+🇮🇲Nutcracker 🏅12 👣11
+🇲🇴mieayamje 🏅6 👣10
+🇻🇦albertoppcr 🏅5 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:59:46</t>
+  </si>
+  <si>
+    <t>br1</t>
+  </si>
+  <si>
     <t>You looked to the West
-[RG 1]🕳
-Total: 18 👥
-🇲🇴 : 6 👥, Leader: cko6o4ku WCR
-🇪🇺 : 2 👥, Leader: LadySheep
-🇻🇦 : 3 👥, Leader: Anima
-🇮🇲 : 7 👥, Leader: Mr_0hotNik
-🇲🇴Unshackled 🏅15 👣11
-🇲🇴Ashlyn 🏅16 👣10
-🇮🇲SweetNightmare 🏅15 👣1
-🇮🇲Michelangelo 🏅13 👣2
-🇮🇲Griffith 🏅13 👣10
-🇲🇴Cimafunk1992 🏅13 👣11
-🇮🇲The_Doomh 🏅11 👣11
-🇲🇴ThePansGames2_0 🏅9 👣10
-🇻🇦Ranfujo 🏅10 👣10
-🇮🇲sebagonz106 🏅8 👣9
-🇮🇲Over 🏅11 👣10
-🇲🇴mieayamje 🏅6 👣10</t>
-  </si>
-  <si>
-    <t>br1</t>
-  </si>
-  <si>
-    <t>You looked to the South
 [BR 1]🛖
-Total: 43 👥
-🇪🇺 : 8 👥, Leader: kayttajanimeton
-🇮🇲 : 33 👥, Leader: Lady Darkness
-🇻🇦 : 1 👥, Leader: justdes
-🇲🇴 : 1 👥, Leader: P_tuning
-🇮🇲Killua Zoldick 🏅15 👣10
-🇮🇲finn blinders 🏅15 👣10
-🇮🇲Otton Brightward 🏅16 👣10
-🇮🇲Smaug Duskbane 🏅16 👣11
-🇮🇲The Will of D 🏅15 👣10
-🇮🇲KradNess 🏅16 👣11
-🇪🇺exackk 🏅14 👣11
-🇮🇲ShadowBlaza 🏅15 👣11
-🇮🇲Night Fury 🏅16 👣11
-🇮🇲Black Knight 🏅15 👣6
-🇮🇲Itachi 🏅15 👣8
-🇮🇲M416 🏅15 👣11</t>
-  </si>
-  <si>
-    <t>2024-08-19 14:12:44</t>
-  </si>
-  <si>
-    <t>LUISOFT2012</t>
+Total: 56 👥
+🇮🇲 : 45 👥, Leader: Fresita97
+🇪🇺 : 5 👥, Leader: Fighter
+🇻🇦 : 3 👥, Leader: justdes
+🇲🇴 : 3 👥, Leader: Boksan AG
+🇮🇲Otton Brightward 🏅17 👣8
+🇮🇲Lady Darkness 🏅16 👣8
+🇮🇲Killua Zoldick 🏅16 👣7
+🇮🇲finn blinders 🏅16 👣10
+🇮🇲The Will of D 🏅16 👣7
+🇮🇲Getavin 🏅15 👣8
+🇮🇲Homyakin 🏅16 👣8
+🇮🇲Halkimid 🏅16 👣8
+🇮🇲Smaug Duskbane 🏅17 👣7
+🇮🇲FoggyMorning 🏅16 👣10
+🇮🇲24601 🏅16 👣11
+🇮🇲Winter Soldier 🏅15 👣8</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:59:45</t>
   </si>
   <si>
     <t>yb1</t>
   </si>
   <si>
     <t>You climbed to the highest point in the 🏟YB 1 and looked around carefully:
-Total: 67 👥
-🇪🇺 : 19 👥, Leader: littlebobby
-🇲🇴 : 11 👥, Leader: J1246W
-🇻🇦 : 27 👥, Leader: Renji Shibuya
-🇮🇲 : 10 👥, Leader: Nebbie
-🇻🇦Illuminat 🏅15 👣11
-🇻🇦LLIysrik_bot 🏅14 👣8
-🇻🇦Samael 🏅15 👣8
-🇪🇺BarbasBoss 🏅14 👣11
-🇪🇺Telpord 🏅14 👣9
-🇻🇦XD_Tempest 🏅14 👣4
-🇻🇦peepeerkee 🏅15 👣9
-🇪🇺Lancelotovich 🏅15 👣6
-🇻🇦Bambr 🏅13 👣7
-🇻🇦NovaTwist 🏅14 👣0
-🇪🇺Rustemator 🏅15 👣7
-🇻🇦Warrior 🏅15 👣4</t>
-  </si>
-  <si>
-    <t>2024-08-20 17:42:50</t>
+-&gt; Arriving Explorers: 8 people, ETA from 0 to 11 min
+Total: 83 👥
+🇮🇲 : 9 👥, Leader: evgen125rus
+🇪🇺 : 40 👥, Leader: Zhao_Beifong
+🇻🇦 : 26 👥, Leader: UnTitledO
+🇲🇴 : 8 👥, Leader: J1246W
+🇪🇺kayttajanimeton 🏅15 👣8
+🇪🇺AnnAiric 🏅16 👣9
+🇪🇺Movchko 🏅15 👣7
+🇪🇺SpeaceShark 🏅15 👣6
+🇪🇺MeLaan 🏅14 👣7
+🇻🇦Fess 🏅15 👣11
+🇪🇺BLUEDRAGON 🏅15 👣7
+🇪🇺dr_ivan 🏅15 👣8
+🇻🇦Shiwo 🏅15 👣6
+🇻🇦MadPosty 🏅14 👣11
+🇪🇺IcedLatte 🏅15 👣10
+🇪🇺BarbasBoss 🏅14 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-21 14:48:12</t>
   </si>
   <si>
     <t>gy1</t>
   </si>
   <si>
-    <t>You looked to the South
+    <t>You looked to the West
 [GY 1]⛺️
-Total: 77 👥
-🇲🇴 : 27 👥, Leader: DoubleStinger
-🇪🇺 : 12 👥, Leader: Noceda
-🇻🇦 : 29 👥, Leader: LuisDabu04
-🇮🇲 : 9 👥, Leader: xrxsnk
-🇻🇦Furynigh 🏅15 👣10
-🇲🇴Rara1003 🏅14 👣8
-🇲🇴Lazy_Girl_010 🏅14 👣8
-🇻🇦Halfeli 🏅14 👣11
-🇻🇦Hans 🏅15 👣5
-🇻🇦Ehhhhhyu 🏅13 👣7
+Total: 99 👥
+🇪🇺 : 16 👥, Leader: 3mpty
+🇲🇴 : 37 👥, Leader: Al3x_02
+🇻🇦 : 35 👥, Leader: Erravi
+🇮🇲 : 11 👥, Leader: Chewbacca
+🇲🇴Alpha 🏅16 👣11
+🇲🇴M4A3E2 Sherman 🏅15 👣11
+🇲🇴FREE MARMELADOV 🏅16 👣4
+🇲🇴Moddesty WCR 🏅15 👣8
+🇲🇴sir Don Quixote 🏅17 👣11
 🇲🇴romkoll 🏅14 👣11
-🇲🇴Shvingle 🏅16 👣11
-🇲🇴Olgalpg 🏅14 👣8
-🇻🇦gogoshich 🏅14 👣8
-🇲🇴Warrior 🏅14 👣8
-🇻🇦Cyphaer 🏅15 👣8</t>
-  </si>
-  <si>
-    <t>2024-08-20 18:26:35</t>
+🇲🇴Keril AG 🏅17 👣8
+🇲🇴Dart_Vaider 🏅14 👣7
+🇲🇴ANTI-AIR DRONE 🏅13 👣10
+🇻🇦Slavi 🏅14 👣6
+🇻🇦The One 🏅15 👣6
+🇻🇦Elver Gota 🏅14 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:51:01</t>
   </si>
   <si>
     <t>b12</t>
@@ -319,16 +298,20 @@
     <t>2024-08-20 17:18:47</t>
   </si>
   <si>
+    <t>Nomad_x5</t>
+  </si>
+  <si>
     <t>b11</t>
   </si>
   <si>
     <t>You looked to the West
 [B 1#1]🌻
-🇪🇺Ryan Gosling 🏅15 👣4
-🇪🇺Loded Diper 🏅14 👣10
-🇪🇺YaUgu 🏅14 👣6
-🇮🇲sessuper 🏅14 👣1
-🇪🇺Hikari_nam 🏅11 👣10</t>
+🇪🇺Spektor 23 🏅16 👣11
+🇪🇺Ulil_A 🏅15 👣10
+🇪🇺DumDum 🏅15 👣10
+🇪🇺Mags 🏅14 👣5
+🇪🇺ever 🏅13 👣10
+🇪🇺newscout 🏅10 👣8</t>
   </si>
   <si>
     <t>b22</t>
@@ -366,94 +349,99 @@
     <t>2024-08-20 17:42:51</t>
   </si>
   <si>
+    <t>Reyfel_V</t>
+  </si>
+  <si>
     <t>b13</t>
   </si>
   <si>
-    <t>You looked to the South
+    <t>You looked to the West
 [B 1#3]🗿
-🇪🇺Asasik 🏅15 👣3
-🇪🇺Azul 🏅11 👣10
+🇪🇺Pyruvic 🏅14 👣10
 🇻🇦igor_gri 🏅7 👣10
+🇪🇺tkdcnw 🏅15 👣7
 🇪🇺RNS1T 🏅7 👣10
 🇪🇺Sergey 🏅7 👣10
 🇪🇺TKulya 🏅7 👣10
 🇪🇺it4ch00 🏅9 👣10
-🇪🇺TheGorGoi 🏅7 👣10</t>
+🇪🇺Skinper 🏅7 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-21 14:48:29</t>
   </si>
   <si>
     <t>gy2</t>
   </si>
   <si>
-    <t>You looked to the South
+    <t>You looked to the North
 [GY 2]🌲
-🇲🇴sir Don Quixote 🏅16 👣10
-🇻🇦Creepy_Totoro 🏅9 👣10
-🇻🇦Zolushka 🏅15 👣6
-🇲🇴T4m4y0 🏅14 👣11
-🇻🇦Warrior 🏅9 👣9</t>
-  </si>
-  <si>
-    <t>2024-08-20 18:32:07</t>
+🇲🇴Color Nebula 🏅14 👣11
+🇲🇴V_i_K_i_N_G 🏅16 👣6
+🇲🇴FloatGoat HOY 🏅15 👣6
+🇲🇴Unshackled 🏅16 👣10
+🇲🇴MajaSospechoso 🏅14 👣2</t>
+  </si>
+  <si>
+    <t>2024-08-21 18:27:49</t>
   </si>
   <si>
     <t>y51</t>
   </si>
   <si>
-    <t>You looked to the East
-[Y 5#1]🌲
-🇻🇦Tiron_Krus 🏅11 👣10
-🇪🇺alive_undead 🏅13 👣5
-🇻🇦Netkill3r 🏅14 👣2</t>
-  </si>
-  <si>
-    <t>2024-08-20 00:21:38</t>
-  </si>
-  <si>
-    <t>Skjold</t>
+    <t>You climbed to the highest point in the 🌲Y 5#1 and looked around carefully:
+-&gt; Arriving Explorers: 1 people, ETA 1 min
+⚔️ 🇻🇦jackalope97 🏅13 lvl has claimed rights to this region 15m 43s ago
+Total: 34 👥
+🇲🇴 : 7 👥, Leader: ZA MRMLDV BL9T
+🇻🇦 : 27 👥, Leader: Fluffy
+🇻🇦Skjold 🏅14 👣5
+🇲🇴Silence BL9T 🏅16 👣10
+🇻🇦TIBUR0NSIN 🏅15 👣7
+🇻🇦Alsencio 🏅14 👣6
+🇻🇦Ehhhhhyu 🏅14 👣6
+🇲🇴FREE MARMELADOV 🏅15 👣4
+🇻🇦Kaladin 🏅14 👣6
+🇻🇦oileel 🏅14 👣2
+🇲🇴Medyak 🏅12 👣7
+🇻🇦Liutenant_Kaida 🏅14 👣4
+🇲🇴Gosling__BL9T 🏅15 👣6
+🇻🇦Lena Kanegawa 🏅15 👣4
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-21 15:57:57</t>
   </si>
   <si>
     <t>yb3</t>
   </si>
   <si>
-    <t>You looked to the South
-[YB 3]🏔
-🇻🇦su4ara 🏅15 👣8
-🇻🇦SystemMaster 🏅10 👣7
-🇻🇦CIROMAN 🏅10 👣4
-🇻🇦Balancer1 🏅11 👣6</t>
-  </si>
-  <si>
-    <t>2024-08-20 18:18:11</t>
+    <t>You climbed to the highest point in the 🏔YB 3 and looked around carefully:
+🇪🇺Rustemator 🏅15 👣1
+🇻🇦wiland11 🏅14 👣7
+🇪🇺Firefox07 🏅15 👣3
+🇪🇺SirLanse 🏅7 👣8
+🇪🇺Azota Perras 🏅13 👣4
+🇻🇦Anayansi71 🏅12 👣12
+🇪🇺TheGorGoi 🏅7 👣10
+🇪🇺Reneru 🏅11 👣6
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-21 14:48:28</t>
   </si>
   <si>
     <t>y12</t>
   </si>
   <si>
-    <t>You climbed to the highest point in the 🌲Y 1#2 and looked around carefully:
--&gt; Arriving Explorers: 3 people, ETA from 0 to 5 min
-⚔️ 🇮🇲Kivenz 🏅12 lvl has claimed rights to this region 43m 57s ago
-Total: 175 👥
-🇮🇲 : 161 👥, Leader: Koro03sense
-🇻🇦 : 14 👥, Leader: kaelska
-🇮🇲The Wall 🏅14 👣2
-🇮🇲Neko '3 🏅13 👣7
-🇮🇲egoisto 🏅13 👣8
-🇮🇲Denvish 🏅14 👣6
-🇮🇲One Autumn Leaf 🏅12 👣10
-🇮🇲angry_gopher 🏅13 👣9
-🇮🇲Edravx 🏅12 👣7
-🇮🇲Flancberg 🏅14 👣2
-🇮🇲FoggyMorning 🏅13 👣10
-🇮🇲Olempy 🏅14 👣1
-🇮🇲Lynnsane 🏅13 👣1
-🇮🇲Otton Brightward 🏅13 👣7
-Combat options: /combat</t>
-  </si>
-  <si>
-    <t>2024-08-19 23:18:02</t>
-  </si>
-  <si>
-    <t>Noob4life</t>
+    <t>You looked to the North
+[Y 1#2]🌲
+🇻🇦Gogashe 🏅15 👣11
+🇪🇺Hypomanie 🏅14 👣5
+🇻🇦wiland11 🏅14 👣9
+🇪🇺Chake14u 🏅14 👣4</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:53:52</t>
   </si>
   <si>
     <t>r51</t>
@@ -488,84 +476,87 @@
   <si>
     <t>You looked to the South
 [Y 3#1]🌲
-🇻🇦su4ara 🏅15 👣3
-🇲🇴everyvvhere 🏅15 👣4
-🇻🇦Nergon 🏅11 👣2
-🇲🇴P_tuning 🏅9 👣10</t>
-  </si>
-  <si>
-    <t>2024-08-20 01:39:38</t>
+Total: 27 👥
+🇲🇴 : 26 👥, Leader: sir Don Quixote
+🇻🇦 : 1 👥, Leader: Povar51345e
+🇲🇴KrotLeopold 🏅15 👣3
+🇲🇴47th 🏅15 👣8
+🇲🇴Ksenia_Queen 🏅15 👣6
+🇲🇴Nesquik 🏅16 👣5
+🇲🇴iBittz 🏅14 👣5
+🇲🇴danil_cop 🏅14 👣8
+🇲🇴Lummie 🏅15 👣8
+🇲🇴sleepgod480 🏅13 👣2
+🇲🇴EvelenAge 🏅14 👣8
+🇲🇴yngemar 🏅16 👣9
+🇲🇴SskaZzzka 🏅16 👣6
+🇲🇴KAMA3_OTXODOB 🏅15 👣6</t>
+  </si>
+  <si>
+    <t>2024-08-21 14:43:43</t>
   </si>
   <si>
     <t>y34</t>
   </si>
   <si>
-    <t>You looked to the East
+    <t>You looked to the South
 [Y 3#4]🏔
-Total: 114 👥
-🇻🇦 : 114 👥, Leader: KyraBlake
-🇻🇦TiadaIma 🏅14 👣10
+Total: 119 👥
+🇻🇦 : 119 👥, Leader: Shiny
+🇻🇦Alsencio 🏅14 👣11
+🇻🇦Asunagu 🏅15 👣10
+🇻🇦Elusive Joe 🏅15 👣8
+🇻🇦TiadaIma 🏅15 👣11
+🇻🇦wolvix 🏅15 👣10
 🇻🇦Im_Gr0ot 🏅13 👣10
-🇻🇦sTwisTs 🏅15 👣6
 🇻🇦Playssin 🏅13 👣10
+🇻🇦MrJonnik 🏅15 👣9
+🇻🇦Ziraf 🏅14 👣11
 🇻🇦Sinon_Woolf 🏅14 👣10
-🇻🇦deripaskovich 🏅14 👣10
-🇻🇦kustiik 🏅15 👣11
-🇻🇦richylyq 🏅14 👣10
-🇻🇦Murloc 🏅14 👣10
-🇻🇦montblanc12 🏅12 👣10
-🇻🇦laminar 🏅13 👣7
-🇻🇦IamAfroman 🏅15 👣11</t>
-  </si>
-  <si>
-    <t>2024-08-20 15:34:04</t>
+🇻🇦deripaskovich 🏅15 👣10
+🇻🇦Walt 🏅15 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:35:51</t>
   </si>
   <si>
     <t>y32</t>
   </si>
   <si>
-    <t>You looked to the East
+    <t>You looked to the North
 [Y 3#2]🌲
-Total: 5517 👥
-🇻🇦 : 5517 👥, Leader: firefighter
-🇻🇦ivanboytsov 🏅15 👣9
-🇻🇦Kluij 🏅14 👣5
+Total: 4193 👥
+🇻🇦 : 4193 👥, Leader: Jigglypuff
+🇻🇦Stimrl 🏅16 👣4
+🇻🇦MadFa1ry 🏅15 👣11
+🇻🇦AngryCapybara 🏅15 👣0
+🇻🇦Tyxlomon 🏅14 👣11
+🇻🇦Cyphaer 🏅16 👣9
 🇻🇦snegoweeke 🏅14 👣10
-🇻🇦Ni7ey 🏅13 👣9
-🇻🇦Sir Panda 🏅15 👣11
-🇻🇦Atarso 🏅15 👣2
-🇻🇦Damphir03 🏅13 👣10
-🇻🇦Crosby15 🏅15 👣2
-🇻🇦Axel_brother 🏅11 👣9
-🇻🇦im_trying_to 🏅12 👣11
-🇻🇦foile 🏅13 👣10
-🇻🇦BattleHelicopter 🏅15 👣7</t>
-  </si>
-  <si>
-    <t>2024-08-19 20:58:49</t>
+🇻🇦Vinzelvul 🏅13 👣6
+🇻🇦Ryhfty 🏅15 👣10
+🇻🇦Damphir03 🏅13 👣11
+🇻🇦Sir Panda 🏅16 👣8
+🇻🇦ZeroVizion 🏅15 👣9
+🇻🇦Cargerdree 🏅14 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:35:50</t>
   </si>
   <si>
     <t>y24</t>
   </si>
   <si>
-    <t>You climbed to the highest point in the 🗿Y 2#4 and looked around carefully:
--&gt; Arriving Explorers: 6 people, ETA from 1 to 17 min
-Total: 61 👥
-🇻🇦 : 60 👥, Leader: Skjold
-🇲🇴 : 1 👥, Leader: Su_R_uP
-🇻🇦TIBUR0NSIN 🏅15 👣10
-🇻🇦Angelo_AxA 🏅14 👣4
-🇻🇦Shiny 🏅12 👣11
-🇻🇦Ehhhhhyu 🏅13 👣11
-🇻🇦Elusive Joe 🏅15 👣8
-🇻🇦Kaladin 🏅14 👣11
-🇻🇦DevilPet 🏅12 👣9
-🇻🇦Frankenstein 🏅14 👣5
-🇻🇦Elver Gota 🏅14 👣4
-🇻🇦Axel_brother 🏅12 👣4
-🇻🇦Damphir03 🏅13 👣9
-🇻🇦Ross96D 🏅14 👣9
-Combat options: /combat</t>
+    <t>You looked to the South
+[Y 2#4]🗿
+🇻🇦Pedro_Ono 🏅8 👣10
+🇲🇴Morten_Greu 🏅10 👣10
+🇻🇦Fighter 🏅8 👣10
+🇻🇦Juan 🏅7 👣10
+🇻🇦ImilmanZ 🏅8 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:41:28</t>
   </si>
   <si>
     <t>r691</t>
@@ -610,40 +601,45 @@
   </si>
   <si>
     <t>You climbed to the highest point in the 🌻Y 4#3 and looked around carefully:
--&gt; Arriving Explorers: 1 people, ETA 1 min
-Total: 237 👥
-🇻🇦 : 237 👥, Leader: Domovoy_k
-🇻🇦kvkoolf 🏅14 👣10
-🇻🇦invyspirit 🏅14 👣11
-🇻🇦LuisDabu04 🏅13 👣11
-🇻🇦Halfeli 🏅13 👣11
-🇻🇦AngryMuffin 🏅14 👣11
-🇻🇦Kinyen 🏅14 👣9
-🇻🇦scwibbling 🏅14 👣10
-🇻🇦ACC30RUS 🏅12 👣10
-🇻🇦KyraBlake 🏅13 👣10
-🇻🇦gogoshich 🏅14 👣8
-🇻🇦Kodok Sawah 🏅13 👣11
-🇻🇦Nisink 🏅14 👣10
+-&gt; Arriving Explorers: 1 people, ETA 2 min
+Total: 232 👥
+🇻🇦 : 231 👥, Leader: Domovoy_k
+🇲🇴 : 1 👥, Leader: jose_vanpringled
+🇻🇦firefighter 🏅16 👣11
+🇻🇦Kinyen 🏅14 👣10
+🇻🇦AngryMuffin 🏅15 👣11
+🇻🇦Odila 🏅14 👣10
+🇻🇦kvkoolf 🏅15 👣10
+🇻🇦not found 🏅15 👣11
+🇻🇦alhimi4ek 🏅15 👣15
+🇻🇦Kodok Sawah 🏅14 👣11
+🇻🇦ACC30RUS 🏅13 👣10
+🇻🇦GotLostInTime 🏅15 👣10
+🇻🇦EndL3ss 🏅16 👣4
+🇻🇦Kaladin 🏅14 👣11
 Combat options: /combat</t>
   </si>
   <si>
-    <t>2024-08-19 14:49:18</t>
+    <t>2024-08-21 13:05:22</t>
   </si>
   <si>
     <t>y13</t>
   </si>
   <si>
-    <t>You looked to the East
-[Y 1#3]🏔
-🇻🇦johnnylava 🏅15 👣3
-🇻🇦TrafaD 🏅13 👣11
-🇻🇦dextrose 🏅15 👣11
-🇻🇦Inikrab 🏅14 👣10
-🇪🇺tr0j4n87 🏅7 👣10</t>
-  </si>
-  <si>
-    <t>2024-08-20 16:25:21</t>
+    <t>You climbed to the highest point in the 🏔Y 1#3 and looked around carefully:
+-&gt; Arriving Explorers: 2 people, ETA from 1 to 4 min
+🇻🇦Akashi Seijuro 🏅10 👣10
+🇪🇺eggytart 🏅15 👣4
+🇻🇦KennyDap 🏅15 👣11
+🇻🇦nikitus20 🏅14 👣9
+🇻🇦crazy_unicorn 🏅12 👣10
+🇪🇺bonvoyageminji 🏅14 👣4
+🇻🇦koppppa 🏅10 👣10
+🇻🇦Anayansi71 🏅12 👣13
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:53:51</t>
   </si>
   <si>
     <t>b32</t>
@@ -711,77 +707,125 @@
     <t>gy5</t>
   </si>
   <si>
-    <t>You looked to the North
-[GY 5]🌳
-💨[empty]</t>
+    <t>You climbed to the highest point in the 🌳GY 5 and looked around carefully:
+-&gt; Arriving Explorers: 31 people, ETA from 0 to 15 min
+Total: 141 👥
+🇻🇦 : 134 👥, Leader: ivanboytsov
+🇲🇴 : 7 👥, Leader: MadebyPr1KoL
+🇻🇦Bacon Tea 🏅15 👣4
+🇻🇦CuriousCapybara 🏅16 👣2
+🇻🇦Stimrl 🏅16 👣4
+🇻🇦firefighter 🏅16 👣8
+🇻🇦Renji Shibuya 🏅14 👣5
+🇻🇦TIBUR0NSIN 🏅15 👣7
+🇻🇦AngryMuffin 🏅15 👣8
+🇻🇦MadFa1ry 🏅16 👣5
+🇻🇦Alsencio 🏅14 👣7
+🇻🇦all_day 🏅15 👣6
+🇻🇦not found 🏅15 👣2
+🇻🇦Drake1990 🏅13 👣7
+Combat options: /combat</t>
+  </si>
+  <si>
+    <t>2024-08-21 15:48:07</t>
   </si>
   <si>
     <t>y42</t>
   </si>
   <si>
-    <t>You looked to the South
-[Y 4#2]🏰
+    <t>You climbed to the highest point in the 🏰Y 4#2 and looked around carefully:
+🇻🇦puppy0cam 🏅10 👣11
+🇻🇦Gigijos 🏅16 👣11
 🇻🇦Bormotoon 🏅12 👣10
-🇻🇦mikefinch 🏅14 👣0
+🇻🇦lolzary 🏅15 👣6
+🇻🇦Loshadkin 🏅16 👣5
 🇻🇦qweasdzxc123S 🏅7 👣10
-🇻🇦DarkHeLLsing 🏅7 👣10
-🇻🇦Fighter 🏅10 👣10
-🇻🇦miralad_octus 🏅12 👣11
+🇻🇦Sir Kittens 🏅15 👣4
+🇻🇦ngeIaa 🏅15 👣5
+🇻🇦duolingvofill 🏅15 👣5
+🇻🇦fake_santa_claus 🏅15 👣5
+🇻🇦Caring Ivy 🏅15 👣5
+🇻🇦snoopcat 🏅15 👣5
 🇻🇦Misterioni 🏅10 👣10
 🇻🇦Sizynokyn 🏅7 👣10
-🇻🇦tryam 🏅8 👣10</t>
-  </si>
-  <si>
-    <t>2024-08-20 00:22:03</t>
+🇻🇦Mumrick_0711 🏅7 👣10
+🇻🇦Nahgr 🏅7 👣9</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:27:09</t>
   </si>
   <si>
     <t>g11</t>
   </si>
   <si>
+    <t>You looked to the East
+[G 1#1]🌲
+Total: 27 👥
+🇲🇴 : 26 👥, Leader: D31m0S
+🇻🇦 : 1 👥, Leader: qtude
+🇲🇴Index AG 🏅16 👣11
+🇲🇴HoWard0 🏅15 👣11
+🇲🇴Rara1003 🏅14 👣11
+🇲🇴sir Don Quixote 🏅17 👣8
+🇲🇴Lazy_Girl_010 🏅14 👣11
+🇲🇴zinniz 🏅16 👣11
+🇲🇴Balyk 🏅17 👣11
+🇲🇴hi4C0CK 🏅16 👣10
+🇲🇴Olgalpg 🏅14 👣11
+🇲🇴o_artem_o 🏅17 👣11
+🇲🇴Warrior 🏅14 👣11
+🇲🇴Tjodmar 🏅13 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-21 18:47:00</t>
+  </si>
+  <si>
+    <t>Skjold</t>
+  </si>
+  <si>
+    <t>gy3</t>
+  </si>
+  <si>
+    <t>You looked to the North
+[GY 3]🌻
+🇲🇴Daddy 🏅14 👣1
+🇻🇦dextrose 🏅15 👣8
+🇲🇴V_i_K_i_N_G 🏅16 👣4
+🇲🇴pussyheda WCR 🏅17 👣0
+🇻🇦nikitus20 🏅14 👣5
+🇲🇴HuevosRevueltos 🏅15 👣7
+🇻🇦Ehhhhhyu 🏅14 👣5
+🇲🇴Waddles 🏅15 👣0
+🇻🇦Valhalla0011 🏅14 👣3
+🇻🇦Anayansi71 🏅12 👣13
+🇻🇦NiKKiTa819 🏅12 👣10
+🇻🇦AlverOrna 🏅13 👣10
+🇮🇲Markitos 🏅8 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-21 20:47:42</t>
+  </si>
+  <si>
+    <t>y41</t>
+  </si>
+  <si>
     <t>You looked to the West
-[G 1#1]🌲
-Total: 43 👥
-🇲🇴 : 42 👥, Leader: HoWard0
-🇻🇦 : 1 👥, Leader: shade_ncs
-🇲🇴Hasserodian 🏅16 👣11
-🇲🇴Gleps 🏅17 👣13
-🇲🇴wrathunleashed 🏅16 👣11
-🇲🇴Solas WCR 🏅15 👣10
-🇲🇴Boksan AG 🏅15 👣11
-🇲🇴hi4C0CK 🏅15 👣10
-🇲🇴Keril AG 🏅16 👣11
-🇲🇴Kaishaku 🏅15 👣11
-🇲🇴ANTI-AIR DRONE 🏅13 👣10
-🇲🇴o_artem_o 🏅17 👣11
-🇲🇴DungeonRabbit 🏅16 👣11
-🇲🇴archer_girl 🏅15 👣9</t>
-  </si>
-  <si>
-    <t>2024-08-20 18:32:05</t>
-  </si>
-  <si>
-    <t>gy3</t>
-  </si>
-  <si>
-    <t>You looked to the South
-[GY 3]🌻
-🇲🇴LaviYarvi 🏅13 👣7
-🇻🇦Gussarov 🏅13 👣10
-🇻🇦Yamile 🏅11 👣10</t>
-  </si>
-  <si>
-    <t>2024-08-20 18:41:27</t>
-  </si>
-  <si>
-    <t>y41</t>
-  </si>
-  <si>
-    <t>You climbed to the highest point in the 🏔Y 4#1 and looked around carefully:
-🇲🇴WTDOHE 🏅13 👣6
-Combat options: /combat</t>
-  </si>
-  <si>
-    <t>2024-08-20 00:21:03</t>
+[Y 4#1]🏔
+Total: 29 👥
+🇻🇦 : 26 👥, Leader: docta
+🇲🇴 : 3 👥, Leader: pussyheda WCR
+🇻🇦Jin Sakai 🏅15 👣6
+🇻🇦Sama 🏅15 👣7
+🇻🇦Furynigh 🏅15 👣3
+🇻🇦Dokos 🏅15 👣3
+🇻🇦Igrit 🏅15 👣2
+🇻🇦invyspirit 🏅15 👣6
+🇲🇴pobirushka WCR 🏅16 👣6
+🇻🇦Samael 🏅16 👣5
+🇻🇦ZeroVizion 🏅15 👣7
+🇻🇦Crosby15 🏅15 👣5
+🇻🇦Kawabang0 🏅11 👣8
+🇻🇦BattleHelicopter 🏅15 👣5</t>
   </si>
   <si>
     <t>r11</t>
@@ -811,6 +855,9 @@
   </si>
   <si>
     <t>2024-08-19 14:17:33</t>
+  </si>
+  <si>
+    <t>LUISOFT2012</t>
   </si>
   <si>
     <t>r21</t>
@@ -882,14 +929,12 @@
   <si>
     <t>You looked to the South
 [Y 4#4]🌻
-🇻🇦Warrior 🏅14 👣4
-🇻🇦OgorodSosat 🏅15 👣11
-🇻🇦VAGODROCHER 🏅14 👣10
-🇻🇦Slaver_Crips 🏅13 👣11
-🇻🇦naadelocos 🏅9 👣3</t>
-  </si>
-  <si>
-    <t>2024-08-19 14:49:19</t>
+🇻🇦Sekundo 🏅7 👣11
+🇻🇦laminar 🏅14 👣4
+🇻🇦Dokos 🏅15 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:05:25</t>
   </si>
   <si>
     <t>y46</t>
@@ -924,20 +969,13 @@
   <si>
     <t>You looked to the East
 [Y 5#3]🏔
-🇻🇦su4ara 🏅14 👣7
 🇻🇦Catioro 🏅12 👣10
-🇻🇦yow_jpeg 🏅9 👣10
-🇻🇦tonix_rd 🏅11 👣10
-🇻🇦Tacos 🏅12 👣10
-🇻🇦MrdrSmith 🏅9 👣10
-🇻🇦patss00 🏅11 👣1
-🇻🇦Saiwudi 🏅8 👣10</t>
-  </si>
-  <si>
-    <t>2024-08-19 15:11:33</t>
-  </si>
-  <si>
-    <t>Mayli206</t>
+🇻🇦Kuzoman 🏅15 👣0
+🇻🇦Shiawase 🏅15 👣11
+🇻🇦yow_jpeg 🏅9 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:05:24</t>
   </si>
   <si>
     <t>br2</t>
@@ -965,36 +1003,29 @@
     <t>y14</t>
   </si>
   <si>
-    <t>You climbed to the highest point in the 🌻Y 1#4 and looked around carefully:
-🇻🇦Ziraf 🏅14 👣6
-🇻🇦el_killer 🏅12 👣10
-🇻🇦Sigrdriva 🏅12 👣5
+    <t>You looked to the South
+[Y 1#4]🌻
+🇪🇺Grishyny 🏅15 👣7
+🇻🇦SeregaMolot 🏅13 👣10
+🇻🇦edifoster 🏅13 👣10
+🇻🇦f_elizha 🏅15 👣7
+🇻🇦NielRain 🏅8 👣5</t>
+  </si>
+  <si>
+    <t>g21</t>
+  </si>
+  <si>
+    <t>You climbed to the highest point in the 🌻G 2#1 and looked around carefully:
+🇲🇴mydearevr 🏅14 👣11
+🇲🇴D31m0S 🏅16 👣11
+🇲🇴woiceks 🏅12 👣10
+🇲🇴WarKas_Wolf 🏅14 👣10
+🇲🇴Nanahoshi 🏅14 👣10
+🇲🇴SUCUBUS_OwO 🏅7 👣10
 Combat options: /combat</t>
   </si>
   <si>
-    <t>2024-08-20 16:24:22</t>
-  </si>
-  <si>
-    <t>g21</t>
-  </si>
-  <si>
-    <t>You looked to the West
-[G 2#1]🌻
-Total: 15 👥
-🇲🇴 : 7 👥, Leader: Thronos Elder
-🇻🇦 : 8 👥, Leader: KyraBlake
-🇻🇦Elver Gota 🏅14 👣5
-🇻🇦miss_badger 🏅14 👣6
-🇻🇦ivanaxe 🏅13 👣5
-🇻🇦VAGODROCHER 🏅15 👣9
-🇲🇴Seraphim Karma 🏅14 👣10
-🇲🇴Njord86 🏅14 👣10
-🇲🇴Seraphin Adam 🏅14 👣10
-🇲🇴Masr64 🏅16 👣10
-🇲🇴Asbjord86 🏅14 👣10
-🇻🇦shadow_sovereing 🏅13 👣10
-🇻🇦Vladimir125VDK 🏅11 👣10
-🇲🇴Allen_XD 🏅10 👣5</t>
+    <t>2024-08-21 14:35:23</t>
   </si>
   <si>
     <t>yb4</t>
@@ -1002,44 +1033,48 @@
   <si>
     <t>You looked to the South
 [YB 4]🌻
-🇪🇺alextrololo 🏅7 👣9
-🇻🇦youthfooluv 🏅15 👣2
-🇻🇦Warrior 🏅14 👣6
-🇻🇦NielRain 🏅8 👣10
-🇻🇦TheTo4e 🏅9 👣1</t>
+🇪🇺Revanhol 🏅15 👣8
+🇪🇺vealvhen 🏅15 👣11
+🇪🇺haretglod 🏅16 👣4
+🇪🇺KOTxBxMEIIIKE 🏅15 👣10
+🇪🇺ja_barbos 🏅15 👣5
+🇪🇺Lord Tabasco 🏅15 👣8
+🇪🇺kik_2823 🏅14 👣8
+🇪🇺Dani_lp 🏅13 👣7</t>
   </si>
   <si>
     <t>g31</t>
   </si>
   <si>
-    <t>You looked to the East
+    <t>You looked to the North
 [G 3#1]🌻
-🇲🇴eddx0 🏅15 👣10
-🇲🇴Om_Y06 🏅9 👣10
-🇲🇴Waddles 🏅15 👣8
-🇲🇴Sempaidkuro 🏅7 👣10
-🇲🇴Joeli29 🏅8 👣10</t>
-  </si>
-  <si>
-    <t>2024-08-20 18:32:06</t>
+🇲🇴garpitkin 🏅12 👣1
+🇲🇴ESCo0 🏅14 👣0
+🇲🇴Arteezy 🏅11 👣10
+🇲🇴FloatGoat HOY 🏅15 👣3
+🇻🇦AVE_DA 🏅14 👣8
+🇻🇦NiKKiTa819 🏅12 👣7</t>
+  </si>
+  <si>
+    <t>2024-08-21 14:43:41</t>
   </si>
   <si>
     <t>gy4</t>
   </si>
   <si>
-    <t>You looked to the East
+    <t>You looked to the West
 [GY 4]🏔
-🇲🇴kotichka miu WCR 🏅16 👣5
-🇲🇴spherebread WCR 🏅17 👣6
-🇻🇦EndL3ss 🏅15 👣8
-🇲🇴gdeshekeli 🏅15 👣9
-🇲🇴Montyni 🏅11 👣0
-🇲🇴Nanahoshi 🏅14 👣9
-🇻🇦try2scam 🏅12 👣6
-🇲🇴Kijang Emas 🏅10 👣5</t>
-  </si>
-  <si>
-    <t>2024-08-20 07:43:44</t>
+🇻🇦Igrit 🏅15 👣3
+🇻🇦malayamedvedica 🏅14 👣0
+🇻🇦Anima 🏅15 👣3
+🇻🇦Vanden 🏅11 👣1
+🇻🇦Kaito_kid_05 🏅10 👣8
+🇻🇦El Reyfelino 🏅12 👣1
+🇲🇴Garu_PDF 🏅7 👣10
+🇻🇦markov_pro 🏅8 👣3</t>
+  </si>
+  <si>
+    <t>2024-08-21 15:48:09</t>
   </si>
   <si>
     <t>g51</t>
@@ -1047,20 +1082,21 @@
   <si>
     <t>You looked to the North
 [G 5#1]🌲
-Total: 30 👥
-🇲🇴 : 30 👥, Leader: everyvvhere
-🇲🇴Tjodmar 🏅12 👣11
-🇲🇴KvaKapss 🏅13 👣11
-🇲🇴Medyak 🏅11 👣11
-🇲🇴sug210 🏅16 👣11
-🇲🇴LawNMoveR 🏅13 👣8
-🇲🇴Lynch 🏅13 👣11
-🇲🇴vonlotra 🏅12 👣2
-🇲🇴Meowghoul 🏅15 👣10
-🇲🇴Diego3191 🏅13 👣11
-🇲🇴petaton 🏅15 👣10
-🇲🇴DeadlyMADphantom 🏅14 👣4
-🇲🇴Aivelyn 🏅16 👣11</t>
+Total: 58 👥
+🇲🇴 : 56 👥, Leader: RisenThron
+🇻🇦 : 2 👥, Leader: DrDarks
+🇲🇴horek 🏅16 👣2
+🇲🇴Edouard Couteau 🏅15 👣4
+🇲🇴Triton_bulk 🏅14 👣9
+🇲🇴Nonsense 🏅14 👣5
+🇲🇴PeaceDeadZZZ 🏅12 👣2
+🇲🇴Neighbor_Totoro 🏅15 👣9
+🇲🇴Shima_no_Kyojin 🏅13 👣8
+🇲🇴YOB Nut 🏅14 👣7
+🇲🇴Nanahoshi 🏅14 👣10
+🇲🇴QweAsd 🏅17 👣6
+🇲🇴Roronoa Zoro 🏅16 👣5
+🇲🇴alien94 🏅15 👣5</t>
   </si>
   <si>
     <t>b14</t>
@@ -1122,41 +1158,48 @@
 🇲🇴esveb_nsk 🏅7 👣10</t>
   </si>
   <si>
+    <t>barbarorc</t>
+  </si>
+  <si>
     <t>g22</t>
   </si>
   <si>
     <t>You looked to the North
 [G 2#2]🌻
-Total: 50 👥
-🇲🇴 : 50 👥, Leader: Al3x_02
-🇲🇴YOB Vit 🏅17 👣11
-🇲🇴Dimaasssikk 🏅15 👣11
-🇲🇴Heir of Breath 🏅14 👣11
-🇲🇴delightmanga 🏅15 👣11
-🇲🇴mamontemok 🏅17 👣11
-🇲🇴Aypopiske 🏅16 👣12
-🇲🇴Tjodmar 🏅12 👣11
-🇲🇴eugencalavera 🏅15 👣10
-🇲🇴Zitronga 🏅15 👣11
-🇲🇴KvaKapss 🏅14 👣11
-🇲🇴Lynch 🏅14 👣11
-🇲🇴Pirra 🏅15 👣11</t>
+Total: 18 👥
+🇲🇴 : 17 👥, Leader: CherryAnimal AG
+🇻🇦 : 1 👥, Leader: Paprika87
+🇲🇴N_V_T 🏅15 👣7
+🇲🇴McCampbell 🏅17 👣10
+🇲🇴Hrudwig 🏅16 👣0
+🇲🇴Captain_Nishtyak 🏅15 👣10
+🇲🇴Bjorg gronnvalv 🏅14 👣10
+🇲🇴OdinAlfatherKing 🏅15 👣9
+🇲🇴Daezmond 🏅15 👣10
+🇲🇴RandomBruh 🏅15 👣10
+🇲🇴LiliumKun 🏅17 👣9
+🇲🇴Pagani 🏅13 👣10
+🇲🇴RiftInTime 🏅17 👣10
+🇲🇴Gin-san 🏅15 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-21 14:35:24</t>
   </si>
   <si>
     <t>g41</t>
   </si>
   <si>
-    <t>You looked to the East
+    <t>You looked to the North
 [G 4#1]🌲
-🇲🇴SYMRAK 🏅15 👣6
-🇲🇴UNGAegon 🏅15 👣10
-🇲🇴Viart BL9T 🏅15 👣10
-🇲🇴Garf AG 🏅14 👣11
-🇲🇴Ibrahimrom 🏅13 👣10
-🇲🇴Abrah5116 🏅12 👣10</t>
-  </si>
-  <si>
-    <t>2024-08-20 18:41:26</t>
+🇻🇦southparallel 🏅14 👣11
+🇻🇦Tanked81 🏅14 👣11
+🇻🇦roeve 🏅14 👣10
+🇻🇦teoremo4ka 🏅13 👣10
+🇻🇦AVE_DA 🏅14 👣9
+🇻🇦dinml91 🏅12 👣10</t>
+  </si>
+  <si>
+    <t>2024-08-21 13:39:57</t>
   </si>
   <si>
     <t>g32</t>
@@ -1178,6 +1221,9 @@
 🇲🇴M4A3E2 Sherman 🏅15 👣11
 🇲🇴YOB Russ_mAn 🏅17 👣11
 🇲🇴everyvvhere 🏅15 👣11</t>
+  </si>
+  <si>
+    <t>2024-08-20 18:41:26</t>
   </si>
   <si>
     <t>y15</t>
@@ -1215,13 +1261,13 @@
 🇻🇦LightningRod 🏅11 👣10</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>user_posted</t>
+    <t>2024-08-20 15:34:04</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>00</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1303,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,16 +1612,17 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1589,24 +1638,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1615,17 +1664,14 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3">
@@ -1651,11 +1697,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1677,14 +1723,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1699,12 +1745,12 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1719,174 +1765,174 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>92</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="B12">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1901,44 +1947,44 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
         <v>47</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1953,18 +1999,18 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1979,17 +2025,17 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>55</v>
       </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B17">
@@ -2008,79 +2054,79 @@
         <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>58</v>
+      <c r="A18" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
         <v>66</v>
@@ -2089,24 +2135,24 @@
         <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>69</v>
@@ -2115,12 +2161,12 @@
         <v>70</v>
       </c>
       <c r="H21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>72</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2135,99 +2181,99 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
         <v>73</v>
       </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
         <v>75</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>76</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>119</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>78</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>114</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>79</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4193</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
         <v>81</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>5517</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>82</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>84</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2236,17 +2282,17 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
         <v>85</v>
       </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B27">
@@ -2266,7 +2312,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B28">
@@ -2289,14 +2335,14 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2311,24 +2357,24 @@
         <v>93</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>95</v>
@@ -2337,11 +2383,11 @@
         <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B31">
@@ -2364,7 +2410,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B32">
@@ -2387,7 +2433,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B33">
@@ -2406,21 +2452,21 @@
         <v>104</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2431,16 +2477,22 @@
       <c r="F34" t="s">
         <v>106</v>
       </c>
+      <c r="G34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>107</v>
+      <c r="A35" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2449,21 +2501,21 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>110</v>
+      <c r="A36" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B36">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2475,50 +2527,50 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>113</v>
+      <c r="A37" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" t="s">
         <v>114</v>
       </c>
-      <c r="G37" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>116</v>
+      <c r="A38" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2527,18 +2579,18 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>119</v>
+      <c r="A39" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2553,18 +2605,18 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>122</v>
+      <c r="A40" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2579,18 +2631,18 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>125</v>
+      <c r="A41" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2605,15 +2657,15 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" t="s">
         <v>126</v>
       </c>
-      <c r="H41" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>127</v>
+      <c r="A42" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2628,15 +2680,15 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>129</v>
+      <c r="A43" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2651,15 +2703,15 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>131</v>
+      <c r="A44" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2674,15 +2726,15 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>133</v>
+      <c r="A45" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2697,21 +2749,21 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H45" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>136</v>
+      <c r="A46" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2720,41 +2772,41 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" t="s">
         <v>137</v>
       </c>
-      <c r="G46" t="s">
-        <v>138</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>141</v>
+      <c r="A48" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2769,15 +2821,15 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H48" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>143</v>
+      <c r="A49" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2792,21 +2844,21 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>145</v>
+      <c r="A50" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2815,18 +2867,18 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>149</v>
+      <c r="A51" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2841,47 +2893,47 @@
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>151</v>
+      <c r="A52" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G52" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2893,47 +2945,47 @@
         <v>155</v>
       </c>
       <c r="G53" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="H53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>156</v>
+      <c r="A54" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>158</v>
+      </c>
+      <c r="G54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55">
         <v>4</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" t="s">
-        <v>96</v>
-      </c>
-      <c r="H54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
       <c r="C55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2942,67 +2994,70 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H55" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>161</v>
+      <c r="A56" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>163</v>
+      </c>
+      <c r="G56" t="s">
+        <v>164</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" t="s">
-        <v>162</v>
-      </c>
-      <c r="G56" t="s">
-        <v>163</v>
-      </c>
-      <c r="H56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>166</v>
+      </c>
+      <c r="G57" t="s">
         <v>164</v>
       </c>
-      <c r="B57">
-        <v>30</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
-        <v>165</v>
-      </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>166</v>
+      <c r="A58" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3017,18 +3072,18 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>169</v>
+      <c r="A59" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3043,18 +3098,18 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>172</v>
+      <c r="A60" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3069,15 +3124,15 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>175</v>
+      <c r="A61" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3092,21 +3147,21 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>177</v>
+      <c r="A62" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B62">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3115,25 +3170,25 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G62" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="H62" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>179</v>
+      <c r="A63" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
         <v>6</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
       <c r="D63">
         <v>0</v>
       </c>
@@ -3141,18 +3196,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>182</v>
+      <c r="A64" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B64">
         <v>342</v>
@@ -3167,18 +3222,18 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G64" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>184</v>
+      <c r="A65" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3193,18 +3248,18 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H65" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>187</v>
+      <c r="A66" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -3219,16 +3274,17 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G66" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datos_extraidos.xlsx
+++ b/datos_extraidos.xlsx
@@ -45,9 +45,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -417,17 +416,17 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" style="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ubicación</t>
         </is>
@@ -454,7 +453,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>text</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -469,7 +468,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>00</t>
         </is>
@@ -498,7 +497,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>ubicacion_no_encontrada</t>
         </is>
@@ -550,7 +549,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>g12</t>
         </is>
@@ -587,7 +586,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>y22</t>
         </is>
@@ -625,7 +624,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>y21</t>
         </is>
@@ -666,7 +665,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>y11</t>
         </is>
@@ -706,7 +705,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-08-21 16:00:02</t>
+          <t>2024-08-22 10:00:40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -716,7 +715,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>y23</t>
         </is>
@@ -766,7 +765,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>rg1</t>
         </is>
@@ -818,7 +817,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>br1</t>
         </is>
@@ -870,7 +869,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>yb1</t>
         </is>
@@ -922,7 +921,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>gy1</t>
         </is>
@@ -974,7 +973,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>b12</t>
         </is>
@@ -1013,7 +1012,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>b11</t>
         </is>
@@ -1054,7 +1053,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>b22</t>
         </is>
@@ -1095,7 +1094,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>yb2</t>
         </is>
@@ -1136,7 +1135,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>b13</t>
         </is>
@@ -1179,7 +1178,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>gy2</t>
         </is>
@@ -1219,7 +1218,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>y51</t>
         </is>
@@ -1271,7 +1270,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>yb3</t>
         </is>
@@ -1314,7 +1313,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>y12</t>
         </is>
@@ -1353,7 +1352,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>r51</t>
         </is>
@@ -1400,7 +1399,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>y31</t>
         </is>
@@ -1450,7 +1449,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>y34</t>
         </is>
@@ -1499,7 +1498,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>y32</t>
         </is>
@@ -1548,7 +1547,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>y24</t>
         </is>
@@ -1588,7 +1587,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>r691</t>
         </is>
@@ -1630,7 +1629,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>b41</t>
         </is>
@@ -1664,7 +1663,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>y43</t>
         </is>
@@ -1715,7 +1714,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>y13</t>
         </is>
@@ -1724,42 +1723,47 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>You climbed to the highest point in the 🏔Y 1#3 and looked around carefully:
--&gt; Arriving Explorers: 2 people, ETA from 1 to 4 min
-🇻🇦Akashi Seijuro 🏅10 👣10
-🇪🇺eggytart 🏅15 👣4
-🇻🇦KennyDap 🏅15 👣11
-🇻🇦nikitus20 🏅14 👣9
-🇻🇦crazy_unicorn 🏅12 👣10
-🇪🇺bonvoyageminji 🏅14 👣4
-🇻🇦koppppa 🏅10 👣10
-🇻🇦Anayansi71 🏅12 👣13
+Total: 76 👥
+🇻🇦 : 76 👥, Leader: Skjold
+🇻🇦Domovoy_k 🏅16 👣6
+🇻🇦Angelo_AxA 🏅14 👣4
+🇻🇦AngryCapybara 🏅15 👣11
+🇻🇦Odila 🏅15 👣4
+🇻🇦Axel_brother 🏅13 👣4
+🇻🇦Drake1990 🏅14 👣10
+🇻🇦Tyxlomon 🏅15 👣11
+🇻🇦dikolohuzhskaya 🏅16 👣9
+🇻🇦Slavi 🏅15 👣7
+🇻🇦Tylwyth 🏅15 👣11
+🇻🇦Cliffarr 🏅15 👣10
+🇻🇦blesd 🏅16 👣10
 Combat options: /combat</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-08-21 13:53:51</t>
+          <t>2024-08-22 11:00:23</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Martha Manso</t>
+          <t>Mayli206</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>b32</t>
         </is>
@@ -1804,7 +1808,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>b23</t>
         </is>
@@ -1848,7 +1852,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>b21</t>
         </is>
@@ -1889,7 +1893,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>gy5</t>
         </is>
@@ -1940,7 +1944,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>y42</t>
         </is>
@@ -1990,7 +1994,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>g11</t>
         </is>
@@ -2040,7 +2044,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>gy3</t>
         </is>
@@ -2088,7 +2092,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>y41</t>
         </is>
@@ -2138,7 +2142,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>r11</t>
         </is>
@@ -2178,7 +2182,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>r12</t>
         </is>
@@ -2217,7 +2221,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>r21</t>
         </is>
@@ -2257,7 +2261,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>r13</t>
         </is>
@@ -2288,7 +2292,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>r22</t>
         </is>
@@ -2328,7 +2332,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>rg2</t>
         </is>
@@ -2362,7 +2366,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>y45</t>
         </is>
@@ -2393,7 +2397,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>y44</t>
         </is>
@@ -2431,7 +2435,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>y46</t>
         </is>
@@ -2462,7 +2466,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>y35</t>
         </is>
@@ -2496,7 +2500,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>y55</t>
         </is>
@@ -2527,7 +2531,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>y53</t>
         </is>
@@ -2566,7 +2570,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>br2</t>
         </is>
@@ -2611,7 +2615,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>y14</t>
         </is>
@@ -2651,7 +2655,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>g21</t>
         </is>
@@ -2692,7 +2696,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>yb4</t>
         </is>
@@ -2704,38 +2708,45 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>You looked to the South
+          <t>You looked to the West
 [YB 4]🌻
-🇪🇺Revanhol 🏅15 👣8
-🇪🇺vealvhen 🏅15 👣11
-🇪🇺haretglod 🏅16 👣4
-🇪🇺KOTxBxMEIIIKE 🏅15 👣10
-🇪🇺ja_barbos 🏅15 👣5
-🇪🇺Lord Tabasco 🏅15 👣8
-🇪🇺kik_2823 🏅14 👣8
-🇪🇺Dani_lp 🏅13 👣7</t>
+Total: 26 👥
+🇮🇲 : 16 👥, Leader: AdryO_0
+🇪🇺 : 10 👥, Leader: iSAdyaa
+🇮🇲Minerva 🏅13 👣9
+🇮🇲SpearOfJuno 🏅13 👣9
+🇮🇲mock_atis 🏅14 👣5
+🇮🇲dizorov 🏅15 👣7
+🇮🇲Rath_98 🏅13 👣7
+🇪🇺Mcdnl the murloc 🏅15 👣11
+🇮🇲Ergo Proxy 🏅15 👣9
+🇮🇲Gladio Maximus 🏅16 👣10
+🇪🇺Artem1040 🏅13 👣9
+🇮🇲Desmenosaurio 🏅14 👣6
+🇮🇲DarkWinniee 🏅11 👣10
+🇮🇲nIBOP 🏅13 👣5</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2024-08-21 14:48:29</t>
+          <t>2024-08-22 10:45:59</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Martha Manso</t>
+          <t>Izzy</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>g31</t>
         </is>
@@ -2776,7 +2787,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>gy4</t>
         </is>
@@ -2819,7 +2830,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>g51</t>
         </is>
@@ -2869,7 +2880,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>b14</t>
         </is>
@@ -2906,7 +2917,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>yb5</t>
         </is>
@@ -2915,34 +2926,48 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>You looked to the West
 [YB 5]🌳
-🇻🇦youthfooluv 🏅15 👣3</t>
+Total: 37 👥
+🇪🇺 : 18 👥, Leader: haretglod
+🇮🇲 : 19 👥, Leader: Chris Bumstead
+🇪🇺grannys milkers 🏅16 👣1
+🇮🇲TexasTheOmertosa 🏅16 👣9
+🇪🇺Asasik 🏅15 👣7
+🇪🇺ja_barbos 🏅15 👣5
+🇮🇲Wolfro 🏅17 👣0
+🇪🇺ilya_fly 🏅15 👣1
+🇪🇺cealinton 🏅16 👣5
+🇪🇺Rafa 🏅16 👣5
+🇪🇺reinierssp 🏅15 👣3
+🇪🇺Nercor 🏅16 👣7
+🇪🇺blue dragon 🏅14 👣7
+🇪🇺coffeenot 🏅14 👣3</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-08-20 16:24:20</t>
+          <t>2024-08-22 09:54:53</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Nomad_x5</t>
+          <t>Izzy</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>br4</t>
         </is>
@@ -2987,7 +3012,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>g13</t>
         </is>
@@ -3021,7 +3046,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>g22</t>
         </is>
@@ -3071,7 +3096,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>g41</t>
         </is>
@@ -3112,7 +3137,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>g32</t>
         </is>
@@ -3161,7 +3186,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>y15</t>
         </is>
@@ -3212,7 +3237,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>y25</t>
         </is>

--- a/datos_extraidos.xlsx
+++ b/datos_extraidos.xlsx
@@ -1753,7 +1753,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-08-22 11:00:23</t>
+          <t>2024-08-22 17:30:39</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
